--- a/testcase/test_datas.xlsx
+++ b/testcase/test_datas.xlsx
@@ -1,35 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasule/PycharmProjects/hopsapi_test/testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FCD4CD-3E27-C84C-A2C0-700ACD4316EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB33DBA4-952A-3C45-9238-0EF7D0B2608B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31180" yWindow="980" windowWidth="26280" windowHeight="14180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1340" windowWidth="24320" windowHeight="13920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cms_login" sheetId="14" r:id="rId1"/>
     <sheet name="cms_getMarket" sheetId="1" r:id="rId2"/>
     <sheet name="members" sheetId="9" r:id="rId3"/>
     <sheet name="food_coupons" sheetId="16" r:id="rId4"/>
-    <sheet name="coupons" sheetId="10" r:id="rId5"/>
+    <sheet name="couponsBuild" sheetId="10" r:id="rId5"/>
     <sheet name="points" sheetId="11" r:id="rId6"/>
     <sheet name="park" sheetId="12" r:id="rId7"/>
     <sheet name="pos" sheetId="13" r:id="rId8"/>
     <sheet name="cms_login_bak" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="177">
   <si>
     <t>case_name</t>
   </si>
@@ -346,9 +345,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":287,"marketId":218,"name":"111","description":"111","amount":1,"cardValue":10000,"quantity":3,"type":1,"useType":0,"discount":"0.01","receiveLimitType":0,"receiveLimitQuantity":"","status":4,"sort":3,"preheatTime":null,"preheatType":0,"startTime":1592387400000,"endTime":1592388000000,"useTimeType":0,"useStartTime":1592386651000,"useEndTime":2145888000000,"bearFeeMethod":1,"bearFeeType":2,"operationType":1,"enable":0,"createTime":1592386651000,"cardBusinessList":{"businessCount":7,"businessIds":[2591,2650,2655,2752,3029,3719,3887],"businessTypeName":"餐饮"},"ticketList":[{"id":606,"marketId":218,"ticketValue":10000,"quantity":1,"type":1,"text":"取消操作"}],"cardUseRate":[{"businessId":"2591","shopNo":"2591","businessBerth":"L4-26A","businessFool":"L4","businessName":"胖哥俩肉蟹煲","businessType":"美食餐厅","area":"西区","logo":"http://cdn.hopsontong.com/FkyTeqIYkx1GrpT_XVZhWiBt6sxY","status":1,"idx":0,"marketbusinessRate":"0:100","showStatus":"disabled","marketRate":0,"businessRate":100},{"businessId":"2650","shopNo":"2650","businessBerth":"D34","businessFool":"B1","businessName":"星扒","businessType":"美食餐厅","area":"街区","logo":"http://cdn.hopsontong.com/Fi8sqwIYJyBiA7d86GXMT0aOqcTh","status":1,"idx":1,"marketbusinessRate":"0:100","showStatus":"disabled","marketRate":0,"businessRate":100},{"businessId":"2655","shopNo":"2655","businessBerth":"L6-17","businessFool":"L6","businessName":"杨记兴臭鳜鱼","businessType":"美食餐厅","area":"西区","logo":"http://cdn.hopsontong.com/FoSsOFxvuNwzwaJGiq9_2FVLYSWR","status":1,"idx":2,"marketbusinessRate":"0:100","showStatus":"disabled","marketRate":0,"businessRate":100},{"businessId":"2752","shopNo":"2752","businessBerth":"L3-42","businessFool":"L3","businessName":"so sweet","businessType":"美容美发","area":"西区","logo":"http://cdn.hopsontong.com/Fm-Qb_IdbofU2wa0O_dUulAmFtf4","status":1,"idx":3,"marketbusinessRate":"0:100","showStatus":"disabled","marketRate":0,"businessRate":100},{"businessId":"3029","shopNo":"3029","businessBerth":"D28","businessFool":"B1","businessName":"无敌家","businessType":"美食餐厅","area":"街区","logo":"http://cdn.hopsontong.com/FpCd7aXsZTUPwSX3K2bPGg4u_SHl","status":1,"idx":4,"marketbusinessRate":"0:100","showStatus":"disabled","marketRate":0,"businessRate":100},{"businessId":"3719","shopNo":"8327","businessBerth":"B2-149","businessFool":"B2","businessName":"梅你不渴","businessType":"美食餐厅","area":"街区","logo":"http://cdn.hopsontong.com/Fq3HCGTuAjnvKK7fWFIH3v-s3aMd","status":1,"idx":5,"marketbusinessRate":"0:100","showStatus":"disabled","marketRate":0,"businessRate":100},{"businessId":"3887","shopNo":"3887","businessBerth":"L3-10","businessFool":"L3","businessName":"Kidsland","businessType":"儿童玩具","area":"西区","logo":"http://cdn.hopsontong.com/FhNZVhHvmmVh-fTzlyAqsSVb-kFs","status":1,"idx":6,"marketbusinessRate":"0:100","showStatus":"disabled","marketRate":0,"businessRate":100}],"userName":"冉爽","userId":186,"sellTotalType":2,"sellTotal":3}</t>
-  </si>
-  <si>
     <t>{"mobile":18600750013,"appFlag":null,"afsSessionId":"WjFlCkIWDpHT9odN","afsSig":"QuAncgq0hrmAVNX0","afsToken":"FFFF0N00000000009184:1591688607383:0.9844042761792562","afsScene":"nc_login","password":"qwer1234"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -456,7 +452,452 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>exportFile</t>
+    <t>members_export</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cms/card/food/getAppList</t>
+  </si>
+  <si>
+    <t>"marketid=218&amp;pageNum=1&amp;pageSize=10"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getFoodCouponsAppList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>{"id":287,"marketId":218,"name":"111","description":"111","amount":1,"cardValue":10000,"quantity":3,"type":1,"useType":0,"discount":"0.01","receiveLimitType":0,"receiveLimitQuantity":"","status":4,"sort":3,"preheatTime":null,"preheatType":0,"startTime":1592387400000,"endTime":1592388000000,"useTimeType":0,"useStartTime":1592386651000,"useEndTime":2145888000000,"bearFeeMethod":1,"bearFeeType":2,"operationType":1,"enable":0,"createTime":1592386651000,"cardBusinessList":{"businessCount":7,"businessIds":[2591,2650,2655,2752,3029,3719,3887],"businessTypeName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>餐饮"},"ticketList":[{"id":606,"marketId":218,"ticketValue":10000,"quantity":1,"type":1,"text":"取消操作"}],"cardUseRate":[{"businessId":"2591","shopNo":"2591","businessBerth":"L4-26A","businessFool":"L4","businessName":"胖哥俩肉蟹煲","businessType":"美食餐厅","area":"西区","logo":"http://cdn.hopsontong.com/FkyTeqIYkx1GrpT_XVZhWiBt6sxY","status":1,"idx":0,"marketbusinessRate":"0:100","showStatus":"disabled","marketRate":0,"businessRate":100},{"businessId":"2650","shopNo":"2650","businessBerth":"D34","businessFool":"B1","businessName":"星扒","businessType":"美食餐厅","area":"街区","logo":"http://cdn.hopsontong.com/Fi8sqwIYJyBiA7d86GXMT0aOqcTh","status":1,"idx":1,"marketbusinessRate":"0:100","showStatus":"disabled","marketRate":0,"businessRate":100},{"businessId":"2655","shopNo":"2655","businessBerth":"L6-17","businessFool":"L6","businessName":"杨记兴臭鳜鱼","businessType":"美食餐厅","area":"西区","logo":"http://cdn.hopsontong.com/FoSsOFxvuNwzwaJGiq9_2FVLYSWR","status":1,"idx":2,"marketbusinessRate":"0:100","showStatus":"disabled","marketRate":0,"businessRate":100},{"businessId":"2752","shopNo":"2752","businessBerth":"L3-42","businessFool":"L3","businessName":"so sweet","businessType":"美容美发","area":"西区","logo":"http://cdn.hopsontong.com/Fm-Qb_IdbofU2wa0O_dUulAmFtf4","status":1,"idx":3,"marketbusinessRate":"0:100","showStatus":"disabled","marketRate":0,"businessRate":100},{"businessId":"3029","shopNo":"3029","businessBerth":"D28","businessFool":"B1","businessName":"无敌家","businessType":"美食餐厅","area":"街区","logo":"http://cdn.hopsontong.com/FpCd7aXsZTUPwSX3K2bPGg4u_SHl","status":1,"idx":4,"marketbusinessRate":"0:100","showStatus":"disabled","marketRate":0,"businessRate":100},{"businessId":"3719","shopNo":"8327","businessBerth":"B2-149","businessFool":"B2","businessName":"梅你不渴","businessType":"美食餐厅","area":"街区","logo":"http://cdn.hopsontong.com/Fq3HCGTuAjnvKK7fWFIH3v-s3aMd","status":1,"idx":5,"marketbusinessRate":"0:100","showStatus":"disabled","marketRate":0,"businessRate":100},{"businessId":"3887","shopNo":"3887","businessBerth":"L3-10","businessFool":"L3","businessName":"Kidsland","businessType":"儿童玩具","area":"西区","logo":"http://cdn.hopsontong.com/FhNZVhHvmmVh-fTzlyAqsSVb-kFs","status":1,"idx":6,"marketbusinessRate":"0:100","showStatus":"disabled","marketRate":0,"businessRate":100}],"userName":"冉爽","userId":186,"sellTotalType":2,"sellTotal":3}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cms/card/food/order/list</t>
+  </si>
+  <si>
+    <t>{"marketId":218,"orderTradeNo":"","cardName":"","mobile":"","orderStatus":"","payWay":"","orderChannel":"","pageSize":10,"pageNum":1,"orderStartTime":"","orderEndTime":"","payStartTime":"","payEndTime":""}</t>
+  </si>
+  <si>
+    <t>getFoodOrderList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cms/card/food/pay/list</t>
+  </si>
+  <si>
+    <t>{"marketId":218,"copyTicketName":"","cardName":"","cardId":"","mobile":"","ticketStatus":"","pageSize":10,"pageNum":1,"startTime":"","endTime":"","useStartTime":"","useEndTime":"","ticketName":""}</t>
+  </si>
+  <si>
+    <t>getFoodPayList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cms/card/food/setUp/select</t>
+  </si>
+  <si>
+    <t>cardSetUpSelect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cms/one-cms/card/food/setUp/saveOrUpdate</t>
+  </si>
+  <si>
+    <t>cardSetUpEdit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>{"id":5,"marketId":218,"limit":0,"help":"&lt;p&gt;qwewqewqe&lt;/p&gt;&lt;p&gt;qwewqewqeqwewqewqeqwewqewqe&lt;/p&gt;&lt;p&gt;qwewqewqe&lt;/p&gt;&lt;p&gt;qwewqewqeqwewqewqe&lt;/p&gt;&lt;p&gt;qwewqewqe&lt;/p&gt;&lt;p&gt;qwewqewqe&lt;/p&gt;&lt;p&gt;qwewqewqe&lt;/p&gt;&lt;p&gt;qwewqewqeqwewqewqeqwewqewqe&lt;/p&gt;&lt;p&gt;qwewqewqe&lt;/p&gt;&lt;p&gt;qwewqewqe&lt;/p&gt;&lt;p&gt;qwewqewqe&lt;/p&gt;&lt;p&gt;qwewqewqe&lt;/p&gt;&lt;p&gt;qwewqewqeqwewqewqeqwewqewqe&lt;/p&gt;&lt;p&gt;11111111111&lt;/p&gt;&lt;p&gt;222222&lt;/p&gt;","userId":186,"userName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冉爽","createTime":null,"updateTime":1593575470000,"h5url":"https://tweb.hopsontong.com:11013/foodHelpNote.html"}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cms/one-cms/coupons/v2/save</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此券有效期为3个月,过期无法使用.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.凭此券可以北京.朝阳.合生汇商场内任意商家消费满100减免20元现金;
+2.单笔消费只能使用一张此优惠券;
+3.优惠金额不计入发票金额.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭此券可以北京.朝阳.合生汇商场内任意商家消费满100减免20元现金.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡券名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡券描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡券图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡券说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>温馨提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup</t>
+  </si>
+  <si>
+    <t>http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1凭此券可以北京.朝阳.合生汇商场内任意商家消费满100减免20元现金.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上架时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下架时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡券面值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡券折扣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费会员专享</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接发放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道投放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动券</t>
+  </si>
+  <si>
+    <t>活动券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡券类型
+(停车0/满减7/活动6/代金3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡券属性
+(付费会员专享1/普通0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放类型
+(直接发放1/渠道投放2/游戏3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"settleAccountFlag":0,"confirmType":2,"confirmDate":"1","isMemberCoupons":"","sendType":"","memberPrivilegeImg":"","memberFeaturedImg":"","amount":"","deductionType":1,"couponsTypeRule":{"amount":"","full":"","minus":"","voucher":"","activityAmount":"","discount":""},"getLimit":{"type":1,"counts":"100"},"marketId":218,"explanation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合生汇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元停车券描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>","couponsUseRule":{"userCount":"","userType":0,"userCondition":"1"},"couponsDetail":{"description":"&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合生汇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元停车券说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;","reminder":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合生汇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元停车券提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"},"couponsBearFeeList":[],"type":"0","obtainMode":"1","obtainModeRule":"","useSpaces":["2"],"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合生汇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元停车券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>","img":"http://kftcdn.hopsontong.com/FtGrbRgyqxoQHLPXImTLtT4Fyprs","count":"100","costHolder":"1","onlineStartDt":1596009872000,"onlineEndDt":1627660800000,"expireStartDt":"","expireEndDt":"","status":0,"countLimit":1,"addNum":"","couponsBusinessList":[],"couponLabelIds":[593,594]}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车券1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车券2-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车券3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减券1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减券2-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减券3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减券4-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动券1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动券2-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动券3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代金券1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代金券2-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代金券3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代金券4-2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +905,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +953,55 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303942"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303942"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303942"/>
+      <name val="Menlo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -526,7 +1017,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -547,13 +1038,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -626,9 +1166,76 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -944,7 +1551,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -1120,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B66D96-1456-E240-BF8D-922094B0EEC9}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1287,6 +1894,23 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0</v>
+      </c>
+      <c r="E10" s="21">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1296,11 +1920,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5B2E0-C955-A048-95B3-5748D63131BD}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1420,8 +2044,8 @@
       <c r="B6" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>81</v>
+      <c r="C6" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="D6" s="21">
         <v>0</v>
@@ -1435,13 +2059,13 @@
     </row>
     <row r="7" spans="1:6" ht="30">
       <c r="A7" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>86</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>87</v>
       </c>
       <c r="D7" s="21">
         <v>0</v>
@@ -1455,13 +2079,13 @@
     </row>
     <row r="8" spans="1:6" ht="30">
       <c r="A8" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>84</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>85</v>
       </c>
       <c r="D8" s="21">
         <v>0</v>
@@ -1473,13 +2097,13 @@
     </row>
     <row r="9" spans="1:6" ht="30">
       <c r="A9" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>90</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>91</v>
       </c>
       <c r="D9" s="21">
         <v>0</v>
@@ -1493,13 +2117,13 @@
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="D10" s="21">
         <v>0</v>
@@ -1513,13 +2137,13 @@
     </row>
     <row r="11" spans="1:6" ht="30">
       <c r="A11" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>95</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>96</v>
       </c>
       <c r="D11" s="21">
         <v>0</v>
@@ -1533,13 +2157,13 @@
     </row>
     <row r="12" spans="1:6" ht="30">
       <c r="A12" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>99</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>100</v>
       </c>
       <c r="D12" s="21">
         <v>0</v>
@@ -1553,13 +2177,13 @@
     </row>
     <row r="13" spans="1:6" ht="30">
       <c r="A13" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="21">
         <v>0</v>
@@ -1573,13 +2197,13 @@
     </row>
     <row r="14" spans="1:6" ht="30">
       <c r="A14" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>103</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>104</v>
       </c>
       <c r="D14" s="21">
         <v>0</v>
@@ -1593,13 +2217,13 @@
     </row>
     <row r="15" spans="1:6" ht="30">
       <c r="A15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>106</v>
       </c>
       <c r="D15" s="21">
         <v>0</v>
@@ -1613,13 +2237,13 @@
     </row>
     <row r="16" spans="1:6" ht="30">
       <c r="A16" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="D16" s="21">
         <v>0</v>
@@ -1629,21 +2253,104 @@
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:5" ht="15">
+    <row r="17" spans="1:6" ht="30">
       <c r="A17" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>110</v>
-      </c>
       <c r="C17" s="23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D17" s="21">
         <v>0</v>
       </c>
       <c r="E17" s="21">
         <v>200</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0</v>
+      </c>
+      <c r="E18" s="21">
+        <v>200</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0</v>
+      </c>
+      <c r="E19" s="21">
+        <v>200</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <v>200</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30">
+      <c r="A21" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <v>200</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1655,13 +2362,613 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FC06A5-306C-9E42-8F9F-3C29E32E0993}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="40" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="28" customWidth="1"/>
+    <col min="9" max="9" width="38.33203125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="34" style="34" customWidth="1"/>
+    <col min="11" max="11" width="31" style="34" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" style="34" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="32" customFormat="1" ht="41" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="27">
+        <v>7</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="28">
+        <v>44041.669814814813</v>
+      </c>
+      <c r="H3" s="28">
+        <v>44408</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="43">
+        <v>8</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="28">
+        <v>44040.669814814813</v>
+      </c>
+      <c r="H4" s="28">
+        <v>44407</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="43">
+        <v>7</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="28">
+        <v>44044.669814814813</v>
+      </c>
+      <c r="H5" s="28">
+        <v>44407</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="28">
+        <v>44046</v>
+      </c>
+      <c r="H6" s="28">
+        <v>44410</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="28">
+        <v>44047</v>
+      </c>
+      <c r="H7" s="28">
+        <v>44411</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="28">
+        <v>44048</v>
+      </c>
+      <c r="H8" s="28">
+        <v>44412</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="28">
+        <v>44049</v>
+      </c>
+      <c r="H9" s="28">
+        <v>44413</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="40">
+        <v>30</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="28">
+        <v>44050</v>
+      </c>
+      <c r="H10" s="28">
+        <v>44414</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="40">
+        <v>31</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="28">
+        <v>44053</v>
+      </c>
+      <c r="H11" s="28">
+        <v>44417</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="39">
+        <v>32</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="28">
+        <v>44054</v>
+      </c>
+      <c r="H12" s="28">
+        <v>44418</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="40">
+        <v>10</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="28">
+        <v>44055</v>
+      </c>
+      <c r="H13" s="28">
+        <v>44419</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="40">
+        <v>10</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="28">
+        <v>44056</v>
+      </c>
+      <c r="H14" s="28">
+        <v>44420</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="40">
+        <v>10</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="28">
+        <v>44057</v>
+      </c>
+      <c r="H15" s="28">
+        <v>44421</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="40">
+        <v>10</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="28">
+        <v>44060</v>
+      </c>
+      <c r="H16" s="28">
+        <v>44424</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{181924C8-9EC4-8C4B-8A20-047C3A87E828}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{67A1D4E9-C01F-0444-9FA0-951214823C34}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{30C0B192-4F60-694E-A9D1-6607F061895B}"/>
+    <hyperlink ref="J6" r:id="rId4" xr:uid="{3A7D1684-EA28-B04D-899D-F8FE85B29606}"/>
+    <hyperlink ref="J7" r:id="rId5" xr:uid="{56B93B22-632E-9E4A-94F3-D0D4C93255AF}"/>
+    <hyperlink ref="J8" r:id="rId6" xr:uid="{D69A1189-1D34-424B-9F96-A5D32ADFF90C}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{2F5ABECD-76B7-5441-B457-A159BCDC5907}"/>
+    <hyperlink ref="J10" r:id="rId8" xr:uid="{40E0BFBC-B7DA-BB42-92D0-A06E92015194}"/>
+    <hyperlink ref="J11" r:id="rId9" xr:uid="{FC35E64F-7822-1A42-890F-094B10D2690E}"/>
+    <hyperlink ref="J12" r:id="rId10" xr:uid="{57F54DCF-9325-0E41-BB81-E7DF2AFD3C93}"/>
+    <hyperlink ref="J13" r:id="rId11" xr:uid="{03810BA1-9E52-364D-BB0C-006C931EA50F}"/>
+    <hyperlink ref="J14" r:id="rId12" xr:uid="{ECC5C85A-C447-EC46-B05E-620ACC3894B0}"/>
+    <hyperlink ref="J15" r:id="rId13" xr:uid="{033697CD-BC56-224B-A009-9FB8990E1772}"/>
+    <hyperlink ref="J16" r:id="rId14" xr:uid="{F8C41561-0A35-474B-A5CF-6ACEECE4B9CC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/testcase/test_datas.xlsx
+++ b/testcase/test_datas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasule/PycharmProjects/hopsapi_test/testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB33DBA4-952A-3C45-9238-0EF7D0B2608B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1F5E85-8ED1-0742-903E-F8FC5F23ACEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1340" windowWidth="24320" windowHeight="13920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38800" yWindow="5240" windowWidth="24320" windowHeight="13920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cms_login" sheetId="14" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="178">
   <si>
     <t>case_name</t>
   </si>
@@ -684,6 +684,66 @@
   <si>
     <t>发放类型
 (直接发放1/渠道投放2/游戏3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车券1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车券2-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车券3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减券1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减券2-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减券3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减券4-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动券1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动券2-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动券3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代金券1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代金券2-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代金券3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代金券4-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注: 创建折扣券时,卡券面值一栏不需要填写值.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -802,7 +862,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>"},"couponsBearFeeList":[],"type":"0","obtainMode":"1","obtainModeRule":"","useSpaces":["2"],"name":"</t>
+      <t>"},"couponsBearFeeList":[],"type":"0","obtainMode":"1","obtainModeRule":"","useSpaces":["1"],"name":"</t>
     </r>
     <r>
       <rPr>
@@ -842,62 +902,6 @@
       </rPr>
       <t>","img":"http://kftcdn.hopsontong.com/FtGrbRgyqxoQHLPXImTLtT4Fyprs","count":"100","costHolder":"1","onlineStartDt":1596009872000,"onlineEndDt":1627660800000,"expireStartDt":"","expireEndDt":"","status":0,"countLimit":1,"addNum":"","couponsBusinessList":[],"couponLabelIds":[593,594]}</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>停车券1-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>停车券2-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>停车券3-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>满减券1-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>满减券2-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>满减券3-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>满减券4-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动券1-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动券2-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动券3-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代金券1-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代金券2-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代金券3-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代金券4-2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1187,9 +1191,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1208,9 +1209,6 @@
     <xf numFmtId="177" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,6 +1229,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2365,85 +2369,83 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="38" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" style="28" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="28" customWidth="1"/>
-    <col min="9" max="9" width="38.33203125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="34" style="34" customWidth="1"/>
-    <col min="11" max="11" width="31" style="34" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" style="34" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="34"/>
+    <col min="9" max="9" width="38.33203125" style="33" customWidth="1"/>
+    <col min="10" max="10" width="34" style="33" customWidth="1"/>
+    <col min="11" max="11" width="31" style="33" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" style="33" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:12" s="31" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29" t="s">
-        <v>131</v>
-      </c>
+      <c r="B1" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="29"/>
       <c r="L1" s="30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="32" customFormat="1" ht="41" customHeight="1">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:12" s="31" customFormat="1" ht="41" customHeight="1">
+      <c r="A2" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="35" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2452,12 +2454,12 @@
         <v>145</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="27">
         <v>7</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="27" t="s">
         <v>144</v>
       </c>
@@ -2473,7 +2475,7 @@
       <c r="I3" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="32" t="s">
         <v>138</v>
       </c>
       <c r="K3" s="26" t="s">
@@ -2488,10 +2490,10 @@
         <v>145</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="27"/>
-      <c r="D4" s="43">
+      <c r="D4" s="41">
         <v>8</v>
       </c>
       <c r="E4" s="27" t="s">
@@ -2509,7 +2511,7 @@
       <c r="I4" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="32" t="s">
         <v>138</v>
       </c>
       <c r="K4" s="26" t="s">
@@ -2524,10 +2526,10 @@
         <v>145</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="27"/>
-      <c r="D5" s="43">
+      <c r="D5" s="41">
         <v>7</v>
       </c>
       <c r="E5" s="27" t="s">
@@ -2545,7 +2547,7 @@
       <c r="I5" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="32" t="s">
         <v>138</v>
       </c>
       <c r="K5" s="26" t="s">
@@ -2560,12 +2562,12 @@
         <v>151</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="27" t="s">
         <v>144</v>
       </c>
@@ -2596,12 +2598,12 @@
         <v>151</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="44"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="27" t="s">
         <v>147</v>
       </c>
@@ -2632,12 +2634,12 @@
         <v>151</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="27" t="s">
         <v>147</v>
       </c>
@@ -2668,12 +2670,12 @@
         <v>151</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="27" t="s">
         <v>147</v>
       </c>
@@ -2704,12 +2706,12 @@
         <v>153</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="40">
+        <v>169</v>
+      </c>
+      <c r="C10" s="38">
         <v>30</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="27" t="s">
         <v>147</v>
       </c>
@@ -2740,12 +2742,12 @@
         <v>153</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="40">
+        <v>170</v>
+      </c>
+      <c r="C11" s="38">
         <v>31</v>
       </c>
-      <c r="D11" s="44"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="27" t="s">
         <v>147</v>
       </c>
@@ -2772,17 +2774,17 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="39">
+      <c r="B12" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="37">
         <v>32</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="39" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="37" t="s">
         <v>146</v>
       </c>
       <c r="F12" s="27" t="s">
@@ -2812,12 +2814,12 @@
         <v>154</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="40">
+        <v>172</v>
+      </c>
+      <c r="C13" s="38">
         <v>10</v>
       </c>
-      <c r="D13" s="44"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="27" t="s">
         <v>147</v>
       </c>
@@ -2848,12 +2850,12 @@
         <v>154</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="40">
+        <v>173</v>
+      </c>
+      <c r="C14" s="38">
         <v>10</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="27" t="s">
         <v>147</v>
       </c>
@@ -2884,12 +2886,12 @@
         <v>154</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="40">
+        <v>174</v>
+      </c>
+      <c r="C15" s="38">
         <v>10</v>
       </c>
-      <c r="D15" s="44"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="27" t="s">
         <v>147</v>
       </c>
@@ -2920,12 +2922,12 @@
         <v>154</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="40">
+        <v>175</v>
+      </c>
+      <c r="C16" s="38">
         <v>10</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="27" t="s">
         <v>144</v>
       </c>
@@ -2952,6 +2954,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:J1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" xr:uid="{181924C8-9EC4-8C4B-8A20-047C3A87E828}"/>

--- a/testcase/test_datas.xlsx
+++ b/testcase/test_datas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jing XiaoChen\PycharmProjects\hopsapi_test\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2444FC64-D9FE-4529-A87E-355E3D692D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E834F314-4F23-4212-8550-FFAB63E76B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/testcase/test_datas.xlsx
+++ b/testcase/test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12660" tabRatio="880" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="member_marketing" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="122">
   <si>
     <t>case_name</t>
   </si>
@@ -86,7 +86,8 @@
     <t>post</t>
   </si>
   <si>
-    <t>业绩管理-日报审核列表</t>
+    <t>业绩管理-
+日报审核列表</t>
   </si>
   <si>
     <t>楼层</t>
@@ -135,6 +136,59 @@
   </si>
   <si>
     <t>列表</t>
+  </si>
+  <si>
+    <t>dayDetails</t>
+  </si>
+  <si>
+    <t>/cms/sales-cms/report/day/view</t>
+  </si>
+  <si>
+    <t>业绩管理-
+日报审核查看</t>
+  </si>
+  <si>
+    <t>业绩数据</t>
+  </si>
+  <si>
+    <t>daydetailsOperation</t>
+  </si>
+  <si>
+    <t>/cms/sales-cms/report/operaRecord</t>
+  </si>
+  <si>
+    <t>操作记录</t>
+  </si>
+  <si>
+    <t>daydetailsBusiness</t>
+  </si>
+  <si>
+    <t>/cms/business-cms/getbusiness</t>
+  </si>
+  <si>
+    <t>商家信息</t>
+  </si>
+  <si>
+    <t>daySubmit</t>
+  </si>
+  <si>
+    <t>/cms/sales-cms/report/day/submit</t>
+  </si>
+  <si>
+    <t>{"businessId":2923,"tradeNo":"820588366344884224","adjustFlow":234,"remark":"","salesDetail":[{"skuId":2923001,"adjustTaxSalesAmount":234500,"adjustTradeCount":234}],"tradeDate":"2020-09-08","people":"郑晶磊1"}</t>
+  </si>
+  <si>
+    <t>业绩管理-
+日报审核审核</t>
+  </si>
+  <si>
+    <t>审核</t>
+  </si>
+  <si>
+    <t>dayReport</t>
+  </si>
+  <si>
+    <t>列表刷新</t>
   </si>
   <si>
     <t>result</t>
@@ -506,10 +560,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
@@ -564,14 +618,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,7 +686,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,45 +716,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,40 +730,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -720,7 +774,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,13 +906,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,85 +942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,67 +954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,6 +1027,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -984,65 +1049,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,7 +1072,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,10 +1132,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1090,16 +1144,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,119 +1162,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1320,11 +1374,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1691,19 +1754,19 @@
       </c>
     </row>
     <row r="2" ht="34.2" spans="1:5">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="40">
         <v>200</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="38" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1867,7 +1930,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>3</v>
@@ -1878,16 +1941,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="24" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>40</v>
+        <v>56</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>57</v>
       </c>
       <c r="E2" s="24">
         <v>200</v>
@@ -1898,93 +1961,93 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="24" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>43</v>
+        <v>59</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>60</v>
       </c>
       <c r="E3" s="24">
         <v>400</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="24" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>43</v>
+        <v>63</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>60</v>
       </c>
       <c r="E4" s="24">
         <v>400</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="24" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>60</v>
       </c>
       <c r="E5" s="26">
         <v>400</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="24" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>43</v>
+        <v>69</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>60</v>
       </c>
       <c r="E6" s="26">
         <v>400</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="27" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1993,7 +2056,7 @@
         <v>400</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2029,13 +2092,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2046,63 +2109,63 @@
       <c r="J1" s="6"/>
       <c r="K1" s="17"/>
       <c r="L1" s="18" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="43.2" spans="1:12">
       <c r="A2" s="7" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:12">
       <c r="A3" s="10" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C3" s="10">
         <v>7</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G3" s="12">
         <v>44041.6698148148</v>
@@ -2111,34 +2174,34 @@
         <v>44408</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:12">
       <c r="A4" s="10" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G4" s="12">
         <v>44040.6698148148</v>
@@ -2147,34 +2210,34 @@
         <v>44407</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11">
         <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G5" s="12">
         <v>44044.6698148148</v>
@@ -2183,34 +2246,34 @@
         <v>44407</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:12">
       <c r="A6" s="10" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G6" s="12">
         <v>44046</v>
@@ -2219,34 +2282,34 @@
         <v>44410</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G7" s="12">
         <v>44047</v>
@@ -2255,34 +2318,34 @@
         <v>44411</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:12">
       <c r="A8" s="10" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G8" s="12">
         <v>44048</v>
@@ -2291,34 +2354,34 @@
         <v>44412</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:12">
       <c r="A9" s="10" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G9" s="12">
         <v>44049</v>
@@ -2327,34 +2390,34 @@
         <v>44413</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:12">
       <c r="A10" s="10" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C10" s="14">
         <v>30</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G10" s="12">
         <v>44050</v>
@@ -2363,34 +2426,34 @@
         <v>44414</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:12">
       <c r="A11" s="10" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C11" s="14">
         <v>31</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G11" s="12">
         <v>44053</v>
@@ -2399,34 +2462,34 @@
         <v>44417</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:12">
       <c r="A12" s="15" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C12" s="15">
         <v>32</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="15" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G12" s="12">
         <v>44054</v>
@@ -2435,34 +2498,34 @@
         <v>44418</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:12">
       <c r="A13" s="10" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C13" s="14">
         <v>10</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G13" s="12">
         <v>44055</v>
@@ -2471,34 +2534,34 @@
         <v>44419</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:12">
       <c r="A14" s="10" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C14" s="14">
         <v>10</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G14" s="12">
         <v>44056</v>
@@ -2507,34 +2570,34 @@
         <v>44420</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:12">
       <c r="A15" s="10" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C15" s="14">
         <v>10</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G15" s="12">
         <v>44057</v>
@@ -2543,34 +2606,34 @@
         <v>44421</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:12">
       <c r="A16" s="10" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C16" s="14">
         <v>10</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="10" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G16" s="12">
         <v>44060</v>
@@ -2579,16 +2642,16 @@
         <v>44424</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:8">
@@ -2665,19 +2728,19 @@
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:5">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="38">
         <v>200</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="38" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2737,7 +2800,7 @@
       <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="14">
@@ -2756,17 +2819,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="23.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="36.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="96.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="36.1111111111111" style="32" customWidth="1"/>
+    <col min="3" max="3" width="96.3333333333333" style="33" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="13.8333333333333" customWidth="1"/>
     <col min="6" max="6" width="19.4444444444444" customWidth="1"/>
@@ -2795,10 +2858,10 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="33" t="s">
         <v>17</v>
       </c>
       <c r="D2">
@@ -2810,7 +2873,7 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="34" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -2821,10 +2884,10 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D3">
@@ -2848,7 +2911,7 @@
       <c r="B4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D4">
@@ -2869,10 +2932,10 @@
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D5">
@@ -2913,10 +2976,129 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" ht="34" customHeight="1"/>
+    <row r="7" ht="29" customHeight="1" spans="1:8">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" ht="31" customHeight="1" spans="1:8">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:8">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" ht="54" customHeight="1" spans="1:8">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" ht="46" customHeight="1" spans="1:8">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/testcase/test_datas.xlsx
+++ b/testcase/test_datas.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23304"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jing XiaoChen\PycharmProjects\hopsapi_test\testcase\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E834F314-4F23-4212-8550-FFAB63E76B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="member_marketing" sheetId="9" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="122">
   <si>
     <t>case_name</t>
   </si>
@@ -50,6 +44,9 @@
     <t>msg</t>
   </si>
   <si>
+    <t>getMemberList</t>
+  </si>
+  <si>
     <t>/cms/membercms/v2/memberInfo/list</t>
   </si>
   <si>
@@ -89,7 +86,8 @@
     <t>post</t>
   </si>
   <si>
-    <t>业绩管理-日报审核列表</t>
+    <t>业绩管理-
+日报审核列表</t>
   </si>
   <si>
     <t>楼层</t>
@@ -138,6 +136,59 @@
   </si>
   <si>
     <t>列表</t>
+  </si>
+  <si>
+    <t>dayDetails</t>
+  </si>
+  <si>
+    <t>/cms/sales-cms/report/day/view</t>
+  </si>
+  <si>
+    <t>业绩管理-
+日报审核查看</t>
+  </si>
+  <si>
+    <t>业绩数据</t>
+  </si>
+  <si>
+    <t>daydetailsOperation</t>
+  </si>
+  <si>
+    <t>/cms/sales-cms/report/operaRecord</t>
+  </si>
+  <si>
+    <t>操作记录</t>
+  </si>
+  <si>
+    <t>daydetailsBusiness</t>
+  </si>
+  <si>
+    <t>/cms/business-cms/getbusiness</t>
+  </si>
+  <si>
+    <t>商家信息</t>
+  </si>
+  <si>
+    <t>daySubmit</t>
+  </si>
+  <si>
+    <t>/cms/sales-cms/report/day/submit</t>
+  </si>
+  <si>
+    <t>{"businessId":2923,"tradeNo":"820588366344884224","adjustFlow":234,"remark":"","salesDetail":[{"skuId":2923001,"adjustTaxSalesAmount":234500,"adjustTradeCount":234}],"tradeDate":"2020-09-08","people":"郑晶磊1"}</t>
+  </si>
+  <si>
+    <t>业绩管理-
+日报审核审核</t>
+  </si>
+  <si>
+    <t>审核</t>
+  </si>
+  <si>
+    <t>dayReport</t>
+  </si>
+  <si>
+    <t>列表刷新</t>
   </si>
   <si>
     <t>result</t>
@@ -211,7 +262,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>{"settleAccountFlag":0,"confirmType":2,"confirmDate":"1","isMemberCoupons":"","sendType":"","memberPrivilegeImg":"","memberFeaturedImg":"","amount":"","deductionType":1,"couponsTypeRule":{"amount":"","full":"","minus":"","voucher":"","activityAmount":"","discount":""},"getLimit":{"type":1,"counts":"100"},"marketId":218,"explanation":"</t>
     </r>
@@ -229,7 +280,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>8</t>
     </r>
@@ -247,7 +298,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>","couponsUseRule":{"userCount":"","userType":0,"userCondition":"1"},"couponsDetail":{"description":"&lt;p&gt;</t>
     </r>
@@ -265,7 +316,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>8</t>
     </r>
@@ -283,7 +334,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;/p&gt;","reminder":"</t>
     </r>
@@ -301,7 +352,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>8</t>
     </r>
@@ -319,7 +370,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>"},"couponsBearFeeList":[],"type":"0","obtainMode":"1","obtainModeRule":"","useSpaces":["1"],"name":"</t>
     </r>
@@ -337,7 +388,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>8</t>
     </r>
@@ -355,7 +406,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>","img":"http://kftcdn.hopsontong.com/FtGrbRgyqxoQHLPXImTLtT4Fyprs","count":"100","costHolder":"1","onlineStartDt":1596009872000,"onlineEndDt":1627660800000,"expireStartDt":"","expireEndDt":"","status":0,"countLimit":1,"addNum":"","couponsBusinessList":[],"couponLabelIds":[593,594]}</t>
     </r>
@@ -502,37 +553,21 @@
   </si>
   <si>
     <t>代金券4-2</t>
-  </si>
-  <si>
-    <t>getMemberList</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>getMemberAccountList</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/cms/membercms/v2/memberaccount/list</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"member":"","marketId":218,"beforePoints":"","endPoints":"","mStatus":null,"label":"","page":1,"size":10}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d\ h:mm;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,7 +587,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -573,13 +608,149 @@
       <sz val="9"/>
       <color rgb="FF6A8759"/>
       <name val="Menlo"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF303942"/>
       <name val="Menlo"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -587,14 +758,8 @@
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,8 +772,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -675,16 +1026,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,13 +1290,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -715,7 +1311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -739,10 +1335,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -769,7 +1365,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -778,12 +1374,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -793,31 +1398,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1075,373 +1714,361 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="42" style="32" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="7" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="14.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="18.1666666666667" style="34" customWidth="1"/>
+    <col min="3" max="3" width="42" style="34" customWidth="1"/>
+    <col min="4" max="4" width="8.33333333333333" style="34" customWidth="1"/>
+    <col min="5" max="5" width="7" style="34" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36">
-      <c r="A2" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="33" t="s">
+    <row r="2" ht="34.2" spans="1:5">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="35">
+      <c r="C2" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="40">
         <v>200</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2">
-      <c r="A3" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="32">
-        <v>200</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>108</v>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="63.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="39.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="63.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="57.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="16.1666666666667" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="59.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="33.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="59.5" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="13.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="6.16666666666667" customWidth="1"/>
+    <col min="3" max="3" width="44.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="4.16666666666667" customWidth="1"/>
+    <col min="5" max="5" width="3.16666666666667" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="22" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="22">
+      <c r="A2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="24">
         <v>200</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>7</v>
+      <c r="F2" s="24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="22">
+      <c r="A3" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="24">
         <v>400</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>43</v>
+      <c r="F3" s="24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="A4" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="24">
         <v>400</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>46</v>
+      <c r="F4" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="24">
+      <c r="A5" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="26">
         <v>400</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>49</v>
+      <c r="F5" s="24" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="24">
+      <c r="A6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="26">
         <v>400</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>52</v>
+      <c r="F6" s="27" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>54</v>
+      <c r="A7" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="26">
         <v>400</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>55</v>
+      <c r="F7" s="27" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1451,1114 +2078,1241 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="59.6640625" customWidth="1"/>
-    <col min="10" max="10" width="59.44140625" customWidth="1"/>
-    <col min="11" max="11" width="114.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
+    <col min="3" max="4" width="9.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="59.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="59.5" customWidth="1"/>
+    <col min="11" max="11" width="114.666666666667" customWidth="1"/>
     <col min="12" max="12" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="43.2">
-      <c r="A2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1">
-      <c r="A3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="8">
+        <v>75</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="43.2" spans="1:12">
+      <c r="A2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:12">
+      <c r="A3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="10">
         <v>7</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="10">
-        <v>44041.669814814799</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="D3" s="11"/>
+      <c r="E3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="12">
+        <v>44041.6698148148</v>
+      </c>
+      <c r="H3" s="12">
         <v>44408</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1">
-      <c r="A4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9">
+      <c r="I3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:12">
+      <c r="A4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="10">
-        <v>44040.669814814799</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="E4" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="12">
+        <v>44040.6698148148</v>
+      </c>
+      <c r="H4" s="12">
         <v>44407</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1">
-      <c r="A5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9">
+      <c r="I4" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:12">
+      <c r="A5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11">
         <v>7</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="10">
-        <v>44044.669814814799</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="E5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="12">
+        <v>44044.6698148148</v>
+      </c>
+      <c r="H5" s="12">
         <v>44407</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1">
-      <c r="A6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="I5" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:12">
+      <c r="A6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="12">
         <v>44046</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="12">
         <v>44410</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1">
-      <c r="A7" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="I6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:12">
+      <c r="A7" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="12">
         <v>44047</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="12">
         <v>44411</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1">
-      <c r="A8" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="I7" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:12">
+      <c r="A8" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="12">
+        <v>44048</v>
+      </c>
+      <c r="H8" s="12">
+        <v>44412</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:12">
+      <c r="A9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="12">
+        <v>44049</v>
+      </c>
+      <c r="H9" s="12">
+        <v>44413</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:12">
+      <c r="A10" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="14">
+        <v>30</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="12">
+        <v>44050</v>
+      </c>
+      <c r="H10" s="12">
+        <v>44414</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:12">
+      <c r="A11" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="14">
+        <v>31</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="12">
+        <v>44053</v>
+      </c>
+      <c r="H11" s="12">
+        <v>44417</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:12">
+      <c r="A12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="15">
+        <v>32</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="12">
+        <v>44054</v>
+      </c>
+      <c r="H12" s="12">
+        <v>44418</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:12">
+      <c r="A13" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="14">
+        <v>10</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="12">
+        <v>44055</v>
+      </c>
+      <c r="H13" s="12">
+        <v>44419</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:12">
+      <c r="A14" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="12">
+        <v>44056</v>
+      </c>
+      <c r="H14" s="12">
+        <v>44420</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:12">
+      <c r="A15" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="14">
+        <v>10</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="12">
+        <v>44057</v>
+      </c>
+      <c r="H15" s="12">
+        <v>44421</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:12">
+      <c r="A16" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="14">
+        <v>10</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="10">
-        <v>44048</v>
-      </c>
-      <c r="H8" s="10">
-        <v>44412</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="2" customFormat="1">
-      <c r="A9" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="F16" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="10">
-        <v>44049</v>
-      </c>
-      <c r="H9" s="10">
-        <v>44413</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="2" customFormat="1">
-      <c r="A10" s="8" t="s">
+      <c r="G16" s="12">
+        <v>44060</v>
+      </c>
+      <c r="H16" s="12">
+        <v>44424</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="K16" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="12">
-        <v>30</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="10">
-        <v>44050</v>
-      </c>
-      <c r="H10" s="10">
-        <v>44414</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="2" customFormat="1">
-      <c r="A11" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="L16" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="12">
-        <v>31</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="10">
-        <v>44053</v>
-      </c>
-      <c r="H11" s="10">
-        <v>44417</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="2" customFormat="1">
-      <c r="A12" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="13">
-        <v>32</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="10">
-        <v>44054</v>
-      </c>
-      <c r="H12" s="10">
-        <v>44418</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="2" customFormat="1">
-      <c r="A13" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="12">
-        <v>10</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="10">
-        <v>44055</v>
-      </c>
-      <c r="H13" s="10">
-        <v>44419</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="2" customFormat="1">
-      <c r="A14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="12">
-        <v>10</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="10">
-        <v>44056</v>
-      </c>
-      <c r="H14" s="10">
-        <v>44420</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="2" customFormat="1">
-      <c r="A15" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="12">
-        <v>10</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="10">
-        <v>44057</v>
-      </c>
-      <c r="H15" s="10">
-        <v>44421</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="2" customFormat="1">
-      <c r="A16" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="12">
-        <v>10</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="10">
-        <v>44060</v>
-      </c>
-      <c r="H16" s="10">
-        <v>44424</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:8">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="J4" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
-    <hyperlink ref="J5" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
-    <hyperlink ref="J6" r:id="rId4" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
-    <hyperlink ref="J7" r:id="rId5" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
-    <hyperlink ref="J8" r:id="rId6" xr:uid="{00000000-0004-0000-0D00-000005000000}"/>
-    <hyperlink ref="J9" r:id="rId7" xr:uid="{00000000-0004-0000-0D00-000006000000}"/>
-    <hyperlink ref="J10" r:id="rId8" xr:uid="{00000000-0004-0000-0D00-000007000000}"/>
-    <hyperlink ref="J11" r:id="rId9" xr:uid="{00000000-0004-0000-0D00-000008000000}"/>
-    <hyperlink ref="J12" r:id="rId10" xr:uid="{00000000-0004-0000-0D00-000009000000}"/>
-    <hyperlink ref="J13" r:id="rId11" xr:uid="{00000000-0004-0000-0D00-00000A000000}"/>
-    <hyperlink ref="J14" r:id="rId12" xr:uid="{00000000-0004-0000-0D00-00000B000000}"/>
-    <hyperlink ref="J15" r:id="rId13" xr:uid="{00000000-0004-0000-0D00-00000C000000}"/>
-    <hyperlink ref="J16" r:id="rId14" xr:uid="{00000000-0004-0000-0D00-00000D000000}"/>
+    <hyperlink ref="J3" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J4" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J5" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J6" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J7" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J8" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J9" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J10" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J11" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J12" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J13" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J14" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J15" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J16" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="15.1666666666667" style="34" customWidth="1"/>
+    <col min="2" max="2" width="21.8333333333333" style="34" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="10.6666666666667" style="34" customWidth="1"/>
+    <col min="5" max="5" width="8.83333333333333" style="34" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2">
-      <c r="A2" s="33" t="s">
+    <row r="2" ht="43.2" spans="1:5">
+      <c r="A2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="38">
+        <v>200</v>
+      </c>
+      <c r="E2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="33">
-        <v>200</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="79" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14" style="12" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="38.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.3333333333333" style="14" customWidth="1"/>
+    <col min="2" max="2" width="32.3333333333333" style="14" customWidth="1"/>
+    <col min="3" max="3" width="79" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13.8333333333333" style="14" customWidth="1"/>
+    <col min="6" max="6" width="16.1666666666667" style="12" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="12" customWidth="1"/>
+    <col min="8" max="8" width="38.3333333333333" style="2" customWidth="1"/>
     <col min="9" max="9" width="34" style="2" customWidth="1"/>
     <col min="10" max="10" width="31" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.77734375" style="2"/>
+    <col min="11" max="11" width="17.1666666666667" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.8333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="12">
+      <c r="C2" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="14">
         <v>200</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>7</v>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.109375" customWidth="1"/>
-    <col min="3" max="3" width="96.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="36.1111111111111" style="32" customWidth="1"/>
+    <col min="3" max="3" width="96.3333333333333" style="33" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="19.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.05" customHeight="1">
+    <row r="2" ht="25" customHeight="1" spans="1:8">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="32" t="s">
         <v>16</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>17</v>
       </c>
       <c r="D2">
         <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="37" t="s">
         <v>18</v>
       </c>
+      <c r="G2" s="34" t="s">
+        <v>19</v>
+      </c>
       <c r="H2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
         <v>21</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="D3">
         <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="37"/>
+        <v>18</v>
+      </c>
+      <c r="G3" s="14"/>
       <c r="H3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="42" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="42" customHeight="1" spans="1:8">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="32" t="s">
         <v>25</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D4">
         <v>200</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="37"/>
+        <v>27</v>
+      </c>
+      <c r="G4" s="14"/>
       <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="33" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:8">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
         <v>29</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="D5">
         <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="37"/>
+        <v>18</v>
+      </c>
+      <c r="G5" s="14"/>
       <c r="H5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="58.05" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="58" customHeight="1" spans="1:8">
       <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>33</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="D6">
         <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="37"/>
+        <v>27</v>
+      </c>
+      <c r="G6" s="14"/>
       <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" ht="29" customHeight="1" spans="1:8">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" ht="31" customHeight="1" spans="1:8">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:8">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" ht="54" customHeight="1" spans="1:8">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" ht="46" customHeight="1" spans="1:8">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="34.049999999999997" customHeight="1"/>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.109375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="4.83333333333333" customWidth="1"/>
+    <col min="7" max="7" width="4.16666666666667" style="30" customWidth="1"/>
+    <col min="8" max="8" width="7.83333333333333" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="71.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="71.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="35.77734375" customWidth="1"/>
-    <col min="3" max="3" width="56.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="56.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testcase/test_datas.xlsx
+++ b/testcase/test_datas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasule/PycharmProjects/hopsapi_test/testcase/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4F2E2F-F55E-4741-B890-EFEF199BCCF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="880" activeTab="3"/>
+    <workbookView xWindow="1420" yWindow="1220" windowWidth="26200" windowHeight="14180" tabRatio="880" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member_marketing" sheetId="9" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="126">
   <si>
     <t>case_name</t>
   </si>
@@ -262,7 +268,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>{"settleAccountFlag":0,"confirmType":2,"confirmDate":"1","isMemberCoupons":"","sendType":"","memberPrivilegeImg":"","memberFeaturedImg":"","amount":"","deductionType":1,"couponsTypeRule":{"amount":"","full":"","minus":"","voucher":"","activityAmount":"","discount":""},"getLimit":{"type":1,"counts":"100"},"marketId":218,"explanation":"</t>
     </r>
@@ -271,6 +277,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>合生汇</t>
@@ -280,7 +287,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>8</t>
     </r>
@@ -289,6 +296,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元停车券描述</t>
@@ -298,7 +306,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>","couponsUseRule":{"userCount":"","userType":0,"userCondition":"1"},"couponsDetail":{"description":"&lt;p&gt;</t>
     </r>
@@ -307,6 +315,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>合生汇</t>
@@ -316,7 +325,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>8</t>
     </r>
@@ -325,6 +334,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元停车券说明</t>
@@ -334,7 +344,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>&lt;/p&gt;","reminder":"</t>
     </r>
@@ -343,6 +353,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>合生汇</t>
@@ -352,7 +363,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>8</t>
     </r>
@@ -361,6 +372,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元停车券提示</t>
@@ -370,7 +382,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>"},"couponsBearFeeList":[],"type":"0","obtainMode":"1","obtainModeRule":"","useSpaces":["1"],"name":"</t>
     </r>
@@ -379,6 +391,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>合生汇</t>
@@ -388,7 +401,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>8</t>
     </r>
@@ -397,6 +410,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元停车券</t>
@@ -406,7 +420,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>","img":"http://kftcdn.hopsontong.com/FtGrbRgyqxoQHLPXImTLtT4Fyprs","count":"100","costHolder":"1","onlineStartDt":1596009872000,"onlineEndDt":1627660800000,"expireStartDt":"","expireEndDt":"","status":0,"countLimit":1,"addNum":"","couponsBusinessList":[],"couponLabelIds":[593,594]}</t>
     </r>
@@ -553,21 +567,40 @@
   </si>
   <si>
     <t>代金券4-2</t>
+  </si>
+  <si>
+    <t>getBusinessList</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hft-business-cms/business</t>
+  </si>
+  <si>
+    <t>marketId=218&amp;businessName=&amp;status=&amp;beginDt=&amp;endDt=&amp;isRefund=&amp;posType=&amp;faceOpen=&amp;pageSize=10&amp;pageNum=1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,6 +613,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -587,12 +621,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Cambria"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -601,6 +636,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -608,158 +644,37 @@
       <sz val="9"/>
       <color rgb="FF6A8759"/>
       <name val="Menlo"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF303942"/>
       <name val="Menlo"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF303942"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,194 +687,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1026,255 +755,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1290,173 +780,130 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1714,1154 +1161,1145 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="34" customWidth="1"/>
-    <col min="2" max="2" width="18.1666666666667" style="34" customWidth="1"/>
-    <col min="3" max="3" width="42" style="34" customWidth="1"/>
-    <col min="4" max="4" width="8.33333333333333" style="34" customWidth="1"/>
-    <col min="5" max="5" width="7" style="34" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="14.5" style="32" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="42" style="32" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="7" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="34.2" spans="1:5">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:5" ht="52">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="36">
         <v>200</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="34" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="39.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="63.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.8333333333333" customWidth="1"/>
-    <col min="5" max="5" width="19.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="63.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="57.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="16.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="33.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
     <col min="3" max="3" width="59.5" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="13.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="6.16666666666667" customWidth="1"/>
-    <col min="3" max="3" width="44.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="4.16666666666667" customWidth="1"/>
-    <col min="5" max="5" width="3.16666666666667" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="22">
         <v>200</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="22">
         <v>400</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="22">
         <v>400</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="24">
         <v>400</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="24">
         <v>400</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="25" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>72</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="24">
         <v>400</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="25" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
-    <col min="3" max="4" width="9.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="28.5" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="59.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="59.6640625" customWidth="1"/>
     <col min="10" max="10" width="59.5" customWidth="1"/>
-    <col min="11" max="11" width="114.666666666667" customWidth="1"/>
+    <col min="11" max="11" width="114.6640625" customWidth="1"/>
     <col min="12" max="12" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="43.2" spans="1:12">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="30">
+      <c r="A2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:12">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:12" s="2" customFormat="1">
+      <c r="A3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>7</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="12">
-        <v>44041.6698148148</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="G3" s="10">
+        <v>44041.669814814799</v>
+      </c>
+      <c r="H3" s="10">
         <v>44408</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:12">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:12" s="2" customFormat="1">
+      <c r="A4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="12">
-        <v>44040.6698148148</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="G4" s="10">
+        <v>44040.669814814799</v>
+      </c>
+      <c r="H4" s="10">
         <v>44407</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:12">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:12" s="2" customFormat="1">
+      <c r="A5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="12">
-        <v>44044.6698148148</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="G5" s="10">
+        <v>44044.669814814799</v>
+      </c>
+      <c r="H5" s="10">
         <v>44407</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:12">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:12" s="2" customFormat="1">
+      <c r="A6" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>44046</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="10">
         <v>44410</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:12">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:12" s="2" customFormat="1">
+      <c r="A7" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>44047</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <v>44411</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:12">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:12" s="2" customFormat="1">
+      <c r="A8" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>44048</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <v>44412</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:12">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:12" s="2" customFormat="1">
+      <c r="A9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>44049</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <v>44413</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:12">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:12" s="2" customFormat="1">
+      <c r="A10" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>30</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>44050</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <v>44414</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:12">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:12" s="2" customFormat="1">
+      <c r="A11" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>31</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>44053</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <v>44417</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:12">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:12" s="2" customFormat="1">
+      <c r="A12" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>32</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>44054</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="10">
         <v>44418</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:12">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:12" s="2" customFormat="1">
+      <c r="A13" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>10</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>44055</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <v>44419</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:12">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:12" s="2" customFormat="1">
+      <c r="A14" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <v>10</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>44056</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <v>44420</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:12">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:12" s="2" customFormat="1">
+      <c r="A15" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <v>10</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>44057</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="10">
         <v>44421</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:12">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:12" s="2" customFormat="1">
+      <c r="A16" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>10</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>44060</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="10">
         <v>44424</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:8">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+    <row r="17" spans="1:8" s="2" customFormat="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
-    <hyperlink ref="J4" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
-    <hyperlink ref="J5" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
-    <hyperlink ref="J6" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
-    <hyperlink ref="J7" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
-    <hyperlink ref="J8" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
-    <hyperlink ref="J9" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
-    <hyperlink ref="J10" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
-    <hyperlink ref="J11" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
-    <hyperlink ref="J12" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
-    <hyperlink ref="J13" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
-    <hyperlink ref="J14" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
-    <hyperlink ref="J15" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
-    <hyperlink ref="J16" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
+    <hyperlink ref="J6" r:id="rId4" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
+    <hyperlink ref="J7" r:id="rId5" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
+    <hyperlink ref="J8" r:id="rId6" xr:uid="{00000000-0004-0000-0D00-000005000000}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{00000000-0004-0000-0D00-000006000000}"/>
+    <hyperlink ref="J10" r:id="rId8" xr:uid="{00000000-0004-0000-0D00-000007000000}"/>
+    <hyperlink ref="J11" r:id="rId9" xr:uid="{00000000-0004-0000-0D00-000008000000}"/>
+    <hyperlink ref="J12" r:id="rId10" xr:uid="{00000000-0004-0000-0D00-000009000000}"/>
+    <hyperlink ref="J13" r:id="rId11" xr:uid="{00000000-0004-0000-0D00-00000A000000}"/>
+    <hyperlink ref="J14" r:id="rId12" xr:uid="{00000000-0004-0000-0D00-00000B000000}"/>
+    <hyperlink ref="J15" r:id="rId13" xr:uid="{00000000-0004-0000-0D00-00000C000000}"/>
+    <hyperlink ref="J16" r:id="rId14" xr:uid="{00000000-0004-0000-0D00-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.1666666666667" style="34" customWidth="1"/>
-    <col min="2" max="2" width="21.8333333333333" style="34" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="34" customWidth="1"/>
-    <col min="4" max="4" width="10.6666666666667" style="34" customWidth="1"/>
-    <col min="5" max="5" width="8.83333333333333" style="34" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="15.1640625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="32" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="43.2" spans="1:5">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:5" ht="45">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="34">
         <v>200</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="34" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.3333333333333" style="14" customWidth="1"/>
-    <col min="2" max="2" width="32.3333333333333" style="14" customWidth="1"/>
-    <col min="3" max="3" width="79" style="14" customWidth="1"/>
-    <col min="4" max="4" width="14" style="14" customWidth="1"/>
-    <col min="5" max="5" width="13.8333333333333" style="14" customWidth="1"/>
-    <col min="6" max="6" width="16.1666666666667" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="12" customWidth="1"/>
-    <col min="8" max="8" width="38.3333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="79" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="38.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="34" style="2" customWidth="1"/>
     <col min="10" max="10" width="31" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.1666666666667" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.8333333333333" style="2"/>
+    <col min="11" max="11" width="17.1640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>200</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="36.1111111111111" style="32" customWidth="1"/>
-    <col min="3" max="3" width="96.3333333333333" style="33" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="96.33203125" style="31" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.8333333333333" customWidth="1"/>
-    <col min="6" max="6" width="19.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:8" s="26" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="25" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="25" customHeight="1">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>17</v>
       </c>
       <c r="D2">
@@ -2873,21 +2311,21 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="38" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D3">
@@ -2899,19 +2337,19 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="39"/>
       <c r="H3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="42" customHeight="1">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D4">
@@ -2923,19 +2361,19 @@
       <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="39"/>
       <c r="H4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" ht="33" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="33" customHeight="1">
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D5">
@@ -2947,19 +2385,19 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="39"/>
       <c r="H5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" ht="58" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="58" customHeight="1">
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="30" t="s">
         <v>34</v>
       </c>
       <c r="D6">
@@ -2971,19 +2409,18 @@
       <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="39"/>
       <c r="H6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" ht="29" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="29" customHeight="1">
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="33"/>
       <c r="D7">
         <v>200</v>
       </c>
@@ -2993,21 +2430,20 @@
       <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" ht="31" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="31" customHeight="1">
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="33"/>
       <c r="D8">
         <v>200</v>
       </c>
@@ -3017,19 +2453,18 @@
       <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="36"/>
+      <c r="G8" s="39"/>
       <c r="H8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" ht="25" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="25" customHeight="1">
       <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="33"/>
       <c r="D9">
         <v>200</v>
       </c>
@@ -3039,19 +2474,19 @@
       <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="36"/>
+      <c r="G9" s="39"/>
       <c r="H9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" ht="54" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="54" customHeight="1">
       <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D10">
@@ -3063,21 +2498,21 @@
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="38" t="s">
         <v>49</v>
       </c>
       <c r="H10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" ht="46" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="46" customHeight="1">
       <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="31" t="s">
         <v>34</v>
       </c>
       <c r="D11">
@@ -3089,7 +2524,7 @@
       <c r="F11" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="39"/>
       <c r="H11" t="s">
         <v>52</v>
       </c>
@@ -3100,219 +2535,471 @@
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="G10:G11"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="$A1:$XFD1"/>
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.8333333333333" customWidth="1"/>
-    <col min="6" max="6" width="4.83333333333333" customWidth="1"/>
-    <col min="7" max="7" width="4.16666666666667" style="30" customWidth="1"/>
-    <col min="8" max="8" width="7.83333333333333" style="31" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" style="29" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="15.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="71.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="71.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+    </row>
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+    </row>
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+    </row>
+    <row r="19" spans="1:2" ht="15">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+    </row>
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+    </row>
+    <row r="21" spans="1:2" ht="15">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+    </row>
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+    </row>
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+    </row>
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+    </row>
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+    </row>
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+    </row>
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+    </row>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+    </row>
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+    </row>
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+    </row>
+    <row r="31" spans="1:2" ht="15">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+    </row>
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+    </row>
+    <row r="33" spans="1:2" ht="15">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+    </row>
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+    </row>
+    <row r="35" spans="1:2" ht="15">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+    </row>
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+    </row>
+    <row r="37" spans="1:2" ht="15">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+    </row>
+    <row r="38" spans="1:2" ht="15">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+    </row>
+    <row r="39" spans="1:2" ht="15">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+    </row>
+    <row r="40" spans="1:2" ht="15">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+    </row>
+    <row r="41" spans="1:2" ht="15">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+    </row>
+    <row r="42" spans="1:2" ht="15">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+    </row>
+    <row r="43" spans="1:2" ht="15">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+    </row>
+    <row r="44" spans="1:2" ht="15">
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+    </row>
+    <row r="45" spans="1:2" ht="15">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+    </row>
+    <row r="46" spans="1:2" ht="15">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+    </row>
+    <row r="47" spans="1:2" ht="15">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+    </row>
+    <row r="48" spans="1:2" ht="15">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+    </row>
+    <row r="49" spans="1:2" ht="15">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+    </row>
+    <row r="50" spans="1:2" ht="15">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+    </row>
+    <row r="51" spans="1:2" ht="15">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+    </row>
+    <row r="52" spans="1:2" ht="15">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+    </row>
+    <row r="53" spans="1:2" ht="15">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+    </row>
+    <row r="54" spans="1:2" ht="15">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+    </row>
+    <row r="55" spans="1:2" ht="15">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+    </row>
+    <row r="56" spans="1:2" ht="15">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+    </row>
+    <row r="57" spans="1:2" ht="15">
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+    </row>
+    <row r="58" spans="1:2" ht="15">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+    </row>
+    <row r="59" spans="1:2" ht="15">
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+    </row>
+    <row r="60" spans="1:2" ht="15">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+    </row>
+    <row r="61" spans="1:2" ht="15">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+    </row>
+    <row r="62" spans="1:2" ht="15">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="35.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="56.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/testcase/test_datas.xlsx
+++ b/testcase/test_datas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasule/PycharmProjects/hopsapi_test/testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4F2E2F-F55E-4741-B890-EFEF199BCCF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F0636C-AF04-5148-A0DA-1A2625E4E906}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1220" windowWidth="26200" windowHeight="14180" tabRatio="880" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4240" yWindow="-19700" windowWidth="26200" windowHeight="14180" tabRatio="880" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member_marketing" sheetId="9" r:id="rId1"/>
@@ -2672,7 +2672,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -2961,6 +2961,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/testcase/test_datas.xlsx
+++ b/testcase/test_datas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasule/PycharmProjects/hopsapi_test/testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F0636C-AF04-5148-A0DA-1A2625E4E906}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ABDC34-146F-3847-88EB-80AB903F180D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4240" yWindow="-19700" windowWidth="26200" windowHeight="14180" tabRatio="880" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="-19620" windowWidth="26200" windowHeight="12780" tabRatio="880" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member_marketing" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="144">
   <si>
     <t>case_name</t>
   </si>
@@ -588,6 +588,266 @@
         <charset val="134"/>
       </rPr>
       <t>成功</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hft-business-cms/business/view</t>
+  </si>
+  <si>
+    <t>getBusinessInfo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateBusiness</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateBusinnessStatus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hft-business-cms/business/update/status</t>
+  </si>
+  <si>
+    <t>resetBusinessPwd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hft-business-cms/business/reset/pwd</t>
+  </si>
+  <si>
+    <t>getCashierList</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hft-business-cms/business/cashier</t>
+  </si>
+  <si>
+    <t>viewCashier</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketId=218&amp;account=&amp;businessName=&amp;status=&amp;beginDt=&amp;endDt=&amp;pageSize=10&amp;pageNum=1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hft-business-cms/business/cashier/view</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessId=100009</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>status=0&amp;businessId=100117&amp;userId=186&amp;userName=%E5%86%89%E7%88%BD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessId=132007&amp;userId=186&amp;userName=%E5%86%89%E7%88%BD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>account=123214</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hft-business-cms/business/update</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"address":"","area":"","bankNo":"","businessId":"100007","businessName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优衣库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="Menlo"/>
+        <family val="1"/>
+      </rPr>
+      <t>","city":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>石家庄市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="Menlo"/>
+        <family val="1"/>
+      </rPr>
+      <t>","companyName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="Menlo"/>
+        <family val="1"/>
+      </rPr>
+      <t>","creditNo":"","dis":[{"key":1,"value":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优惠券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="Menlo"/>
+        <family val="1"/>
+      </rPr>
+      <t>"},{"key":2,"value":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>积分抵扣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="Menlo"/>
+        <family val="1"/>
+      </rPr>
+      <t>"}],"facePayment":{"alipay":0,"wechat":0},"identification":"2","isRefund":1,"marketId":218,"mobile":"18700356783","openBank":"","posType":1,"province":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>河北省</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="Menlo"/>
+        <family val="1"/>
+      </rPr>
+      <t>","receipt":[{"key":1,"value":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扫码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="Menlo"/>
+        <family val="1"/>
+      </rPr>
+      <t>"},{"key":2,"value":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>银行卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="Menlo"/>
+        <family val="1"/>
+      </rPr>
+      <t>"},{"key":3,"value":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="Menlo"/>
+        <family val="1"/>
+      </rPr>
+      <t>"}],"oldPosType":1,"userId":"186","userName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冉爽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF303942"/>
+        <rFont val="Menlo"/>
+        <family val="1"/>
+      </rPr>
+      <t>"}</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -597,10 +857,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,6 +932,20 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303942"/>
+      <name val="Menlo"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -764,7 +1038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,7 +1060,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -795,7 +1069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -849,7 +1123,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -890,6 +1164,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2672,13 +2955,13 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" customWidth="1"/>
     <col min="3" max="3" width="71.1640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
@@ -2711,7 +2994,7 @@
       <c r="C2" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="33">
         <v>200</v>
       </c>
       <c r="E2" s="33" t="s">
@@ -2719,242 +3002,374 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="33">
+        <v>200</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="33">
+        <v>200</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="33">
+        <v>200</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="33">
+        <v>200</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="33">
+        <v>200</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="33">
+        <v>200</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="1:5" ht="15">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:5" ht="15">
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="1:5" ht="15">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
-    </row>
-    <row r="17" spans="1:2" ht="15">
+      <c r="D16" s="33"/>
+    </row>
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="33"/>
       <c r="B17" s="33"/>
-    </row>
-    <row r="18" spans="1:2" ht="15">
+      <c r="D17" s="33"/>
+    </row>
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
-    </row>
-    <row r="19" spans="1:2" ht="15">
+      <c r="D18" s="33"/>
+    </row>
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" s="33"/>
       <c r="B19" s="33"/>
-    </row>
-    <row r="20" spans="1:2" ht="15">
+      <c r="D19" s="33"/>
+    </row>
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
-    </row>
-    <row r="21" spans="1:2" ht="15">
+      <c r="D20" s="33"/>
+    </row>
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
-    </row>
-    <row r="22" spans="1:2" ht="15">
+      <c r="D21" s="33"/>
+    </row>
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
-    </row>
-    <row r="23" spans="1:2" ht="15">
+      <c r="D22" s="33"/>
+    </row>
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
-    </row>
-    <row r="24" spans="1:2" ht="15">
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" s="33"/>
       <c r="B24" s="33"/>
-    </row>
-    <row r="25" spans="1:2" ht="15">
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="1:4" ht="15">
       <c r="A25" s="33"/>
       <c r="B25" s="33"/>
-    </row>
-    <row r="26" spans="1:2" ht="15">
+      <c r="D25" s="33"/>
+    </row>
+    <row r="26" spans="1:4" ht="15">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
-    </row>
-    <row r="27" spans="1:2" ht="15">
+      <c r="D26" s="33"/>
+    </row>
+    <row r="27" spans="1:4" ht="15">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
-    </row>
-    <row r="28" spans="1:2" ht="15">
+      <c r="D27" s="33"/>
+    </row>
+    <row r="28" spans="1:4" ht="15">
       <c r="A28" s="33"/>
       <c r="B28" s="33"/>
-    </row>
-    <row r="29" spans="1:2" ht="15">
+      <c r="D28" s="33"/>
+    </row>
+    <row r="29" spans="1:4" ht="15">
       <c r="A29" s="33"/>
       <c r="B29" s="33"/>
-    </row>
-    <row r="30" spans="1:2" ht="15">
+      <c r="D29" s="33"/>
+    </row>
+    <row r="30" spans="1:4" ht="15">
       <c r="A30" s="33"/>
       <c r="B30" s="33"/>
-    </row>
-    <row r="31" spans="1:2" ht="15">
+      <c r="D30" s="33"/>
+    </row>
+    <row r="31" spans="1:4" ht="15">
       <c r="A31" s="33"/>
       <c r="B31" s="33"/>
-    </row>
-    <row r="32" spans="1:2" ht="15">
+      <c r="D31" s="33"/>
+    </row>
+    <row r="32" spans="1:4" ht="15">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
-    </row>
-    <row r="33" spans="1:2" ht="15">
+      <c r="D32" s="33"/>
+    </row>
+    <row r="33" spans="1:4" ht="15">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
-    </row>
-    <row r="34" spans="1:2" ht="15">
+      <c r="D33" s="33"/>
+    </row>
+    <row r="34" spans="1:4" ht="15">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
-    </row>
-    <row r="35" spans="1:2" ht="15">
+      <c r="D34" s="33"/>
+    </row>
+    <row r="35" spans="1:4" ht="15">
       <c r="A35" s="33"/>
       <c r="B35" s="33"/>
-    </row>
-    <row r="36" spans="1:2" ht="15">
+      <c r="D35" s="33"/>
+    </row>
+    <row r="36" spans="1:4" ht="15">
       <c r="A36" s="33"/>
       <c r="B36" s="33"/>
-    </row>
-    <row r="37" spans="1:2" ht="15">
+      <c r="D36" s="33"/>
+    </row>
+    <row r="37" spans="1:4" ht="15">
       <c r="A37" s="33"/>
       <c r="B37" s="33"/>
-    </row>
-    <row r="38" spans="1:2" ht="15">
+      <c r="D37" s="33"/>
+    </row>
+    <row r="38" spans="1:4" ht="15">
       <c r="A38" s="33"/>
       <c r="B38" s="33"/>
-    </row>
-    <row r="39" spans="1:2" ht="15">
+      <c r="D38" s="33"/>
+    </row>
+    <row r="39" spans="1:4" ht="15">
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
-    </row>
-    <row r="40" spans="1:2" ht="15">
+      <c r="D39" s="33"/>
+    </row>
+    <row r="40" spans="1:4" ht="15">
       <c r="A40" s="33"/>
       <c r="B40" s="33"/>
-    </row>
-    <row r="41" spans="1:2" ht="15">
+      <c r="D40" s="33"/>
+    </row>
+    <row r="41" spans="1:4" ht="15">
       <c r="A41" s="33"/>
       <c r="B41" s="33"/>
-    </row>
-    <row r="42" spans="1:2" ht="15">
+      <c r="D41" s="33"/>
+    </row>
+    <row r="42" spans="1:4" ht="15">
       <c r="A42" s="33"/>
       <c r="B42" s="33"/>
-    </row>
-    <row r="43" spans="1:2" ht="15">
+      <c r="D42" s="33"/>
+    </row>
+    <row r="43" spans="1:4" ht="15">
       <c r="A43" s="33"/>
       <c r="B43" s="33"/>
-    </row>
-    <row r="44" spans="1:2" ht="15">
+      <c r="D43" s="33"/>
+    </row>
+    <row r="44" spans="1:4" ht="15">
       <c r="A44" s="33"/>
       <c r="B44" s="33"/>
-    </row>
-    <row r="45" spans="1:2" ht="15">
+      <c r="D44" s="33"/>
+    </row>
+    <row r="45" spans="1:4" ht="15">
       <c r="A45" s="33"/>
       <c r="B45" s="33"/>
-    </row>
-    <row r="46" spans="1:2" ht="15">
+      <c r="D45" s="33"/>
+    </row>
+    <row r="46" spans="1:4" ht="15">
       <c r="A46" s="33"/>
       <c r="B46" s="33"/>
-    </row>
-    <row r="47" spans="1:2" ht="15">
+      <c r="D46" s="33"/>
+    </row>
+    <row r="47" spans="1:4" ht="15">
       <c r="A47" s="33"/>
       <c r="B47" s="33"/>
-    </row>
-    <row r="48" spans="1:2" ht="15">
+      <c r="D47" s="33"/>
+    </row>
+    <row r="48" spans="1:4" ht="15">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
-    </row>
-    <row r="49" spans="1:2" ht="15">
+      <c r="D48" s="33"/>
+    </row>
+    <row r="49" spans="1:4" ht="15">
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
-    </row>
-    <row r="50" spans="1:2" ht="15">
+      <c r="D49" s="33"/>
+    </row>
+    <row r="50" spans="1:4" ht="15">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
-    </row>
-    <row r="51" spans="1:2" ht="15">
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="15">
       <c r="A51" s="33"/>
       <c r="B51" s="33"/>
-    </row>
-    <row r="52" spans="1:2" ht="15">
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="15">
       <c r="A52" s="33"/>
       <c r="B52" s="33"/>
-    </row>
-    <row r="53" spans="1:2" ht="15">
+      <c r="D52" s="33"/>
+    </row>
+    <row r="53" spans="1:4" ht="15">
       <c r="A53" s="33"/>
       <c r="B53" s="33"/>
-    </row>
-    <row r="54" spans="1:2" ht="15">
+      <c r="D53" s="33"/>
+    </row>
+    <row r="54" spans="1:4" ht="15">
       <c r="A54" s="33"/>
       <c r="B54" s="33"/>
-    </row>
-    <row r="55" spans="1:2" ht="15">
+      <c r="D54" s="33"/>
+    </row>
+    <row r="55" spans="1:4" ht="15">
       <c r="A55" s="33"/>
       <c r="B55" s="33"/>
-    </row>
-    <row r="56" spans="1:2" ht="15">
+      <c r="D55" s="33"/>
+    </row>
+    <row r="56" spans="1:4" ht="15">
       <c r="A56" s="33"/>
       <c r="B56" s="33"/>
-    </row>
-    <row r="57" spans="1:2" ht="15">
+      <c r="D56" s="33"/>
+    </row>
+    <row r="57" spans="1:4" ht="15">
       <c r="A57" s="33"/>
       <c r="B57" s="33"/>
-    </row>
-    <row r="58" spans="1:2" ht="15">
+      <c r="D57" s="33"/>
+    </row>
+    <row r="58" spans="1:4" ht="15">
       <c r="A58" s="33"/>
       <c r="B58" s="33"/>
-    </row>
-    <row r="59" spans="1:2" ht="15">
+      <c r="D58" s="33"/>
+    </row>
+    <row r="59" spans="1:4" ht="15">
       <c r="A59" s="33"/>
       <c r="B59" s="33"/>
-    </row>
-    <row r="60" spans="1:2" ht="15">
+      <c r="D59" s="33"/>
+    </row>
+    <row r="60" spans="1:4" ht="15">
       <c r="A60" s="33"/>
       <c r="B60" s="33"/>
-    </row>
-    <row r="61" spans="1:2" ht="15">
+      <c r="D60" s="33"/>
+    </row>
+    <row r="61" spans="1:4" ht="15">
       <c r="A61" s="33"/>
       <c r="B61" s="33"/>
-    </row>
-    <row r="62" spans="1:2" ht="15">
+      <c r="D61" s="33"/>
+    </row>
+    <row r="62" spans="1:4" ht="15">
       <c r="A62" s="33"/>
       <c r="B62" s="33"/>
     </row>

--- a/testcase/test_datas.xlsx
+++ b/testcase/test_datas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasule/PycharmProjects/hopsapi_test/testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ABDC34-146F-3847-88EB-80AB903F180D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A3EF0A-3A83-3F48-B4BF-54F694314339}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="-19620" windowWidth="26200" windowHeight="12780" tabRatio="880" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="-20320" windowWidth="26200" windowHeight="12780" tabRatio="880" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member_marketing" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="166">
   <si>
     <t>case_name</t>
   </si>
@@ -849,6 +849,87 @@
       </rPr>
       <t>"}</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateCashier</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hft-business-cms/business/cashier/update</t>
+  </si>
+  <si>
+    <t>{"userId":"","userName":"","account":"10000702","businessId":"100007","marketId":218,"mobile":"18600347583","name":"王保磊"}</t>
+  </si>
+  <si>
+    <t>disableCashier</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableCashier</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hft-business-cms/business/cashier/update/status</t>
+  </si>
+  <si>
+    <t>/hft-business-cms/business/cashier/reset/pwd</t>
+  </si>
+  <si>
+    <t>resetCashierPWD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessId=100007&amp;account=10000712&amp;status=0&amp;userId=186&amp;userName=%E5%86%89%E7%88%BD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessId=100007&amp;account=10000712&amp;status=1&amp;userId=186&amp;userName=%E5%86%89%E7%88%BD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>account=10000712&amp;userId=186&amp;userName=%E5%86%89%E7%88%BD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>terminalList</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hft-business-cms/business/terminal</t>
+  </si>
+  <si>
+    <t>marketId=218&amp;businessName=&amp;posType=&amp;activateStatus=&amp;status=&amp;pageSize=10&amp;pageNum=1&amp;beginDt=&amp;endDt=</t>
+  </si>
+  <si>
+    <t>viewTerminal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>terminalNo=10000402</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hft-business-cms/business/terminal/view</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableTerminal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableTerminal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hft-business-cms/business/terminal/update/status</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessId=100004&amp;terminalNo=10000401&amp;status=0&amp;posType=1&amp;userId=186&amp;userName=%E5%86%89%E7%88%BD</t>
+  </si>
+  <si>
+    <t>businessId=100004&amp;terminalNo=10000401&amp;status=1&amp;posType=1&amp;userId=186&amp;userName=%E5%86%89%E7%88%BD</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -860,7 +941,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,14 +1013,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1038,7 +1111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1153,6 +1226,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1164,15 +1243,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1822,16 +1892,16 @@
       <c r="B1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="15"/>
       <c r="L1" s="16" t="s">
         <v>77</v>
@@ -2594,7 +2664,7 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="40" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -2620,7 +2690,7 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="39"/>
+      <c r="G3" s="41"/>
       <c r="H3" t="s">
         <v>23</v>
       </c>
@@ -2644,7 +2714,7 @@
       <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="39"/>
+      <c r="G4" s="41"/>
       <c r="H4" t="s">
         <v>28</v>
       </c>
@@ -2668,7 +2738,7 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="39"/>
+      <c r="G5" s="41"/>
       <c r="H5" t="s">
         <v>31</v>
       </c>
@@ -2692,7 +2762,7 @@
       <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="39"/>
+      <c r="G6" s="41"/>
       <c r="H6" t="s">
         <v>35</v>
       </c>
@@ -2713,7 +2783,7 @@
       <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="40" t="s">
         <v>38</v>
       </c>
       <c r="H7" t="s">
@@ -2736,7 +2806,7 @@
       <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="39"/>
+      <c r="G8" s="41"/>
       <c r="H8" t="s">
         <v>42</v>
       </c>
@@ -2757,7 +2827,7 @@
       <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="39"/>
+      <c r="G9" s="41"/>
       <c r="H9" t="s">
         <v>45</v>
       </c>
@@ -2781,7 +2851,7 @@
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="40" t="s">
         <v>49</v>
       </c>
       <c r="H10" t="s">
@@ -2807,7 +2877,7 @@
       <c r="F11" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="39"/>
+      <c r="G11" s="41"/>
       <c r="H11" t="s">
         <v>52</v>
       </c>
@@ -2954,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -3025,7 +3095,7 @@
       <c r="B4" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="39" t="s">
         <v>143</v>
       </c>
       <c r="D4" s="33">
@@ -3048,7 +3118,7 @@
       <c r="D5" s="33">
         <v>200</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="38" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3065,7 +3135,7 @@
       <c r="D6" s="33">
         <v>200</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="38" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3082,7 +3152,7 @@
       <c r="D7" s="33">
         <v>200</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="38" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3099,50 +3169,145 @@
       <c r="D8" s="33">
         <v>200</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="38" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="A9" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="33">
+        <v>200</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="33">
+        <v>200</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="A11" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="33">
+        <v>200</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="33"/>
+      <c r="A12" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="33">
+        <v>200</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="33">
+        <v>200</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="A14" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="33">
+        <v>200</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="A15" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="33">
+        <v>200</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="A16" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="33">
+        <v>200</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="33"/>

--- a/testcase/test_datas.xlsx
+++ b/testcase/test_datas.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasule/PycharmProjects/hopsapi_test/testcase/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A3EF0A-3A83-3F48-B4BF-54F694314339}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="-20320" windowWidth="26200" windowHeight="12780" tabRatio="880" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="880"/>
   </bookViews>
   <sheets>
     <sheet name="member_marketing" sheetId="9" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="122">
   <si>
     <t>case_name</t>
   </si>
@@ -62,6 +56,57 @@
     <t>成功</t>
   </si>
   <si>
+    <t>getMemberAccountList</t>
+  </si>
+  <si>
+    <t>/cms/membercms/v2/memberaccount/list</t>
+  </si>
+  <si>
+    <t>{"member":"","marketId":218,"beforePoints":"","endPoints":"","mStatus":null,"label":"","page":1,"size":10}</t>
+  </si>
+  <si>
+    <t>viewMemberInfo</t>
+  </si>
+  <si>
+    <t>/cms/member-cms/cms/member/memberInfoAddressPark/593411913900101632</t>
+  </si>
+  <si>
+    <t>editMemberInfo</t>
+  </si>
+  <si>
+    <t>/cms/member-cms/cms/member/memberstatus</t>
+  </si>
+  <si>
+    <t>{"marketId":218,"mId":"593411913900101632","newStatus":2,"oldStatus":1,"pointNum":2674,"remark":"萨达所大所多","scene":1,"operationName":"荆晓晨","operationId":6889}</t>
+  </si>
+  <si>
+    <t>addMember</t>
+  </si>
+  <si>
+    <t>/cms/member-cms/member/memberinfo</t>
+  </si>
+  <si>
+    <t>{"marketId":218,"nickName":"198****0001","mMobile":"19800000004","sex":1,"birthday":""}</t>
+  </si>
+  <si>
+    <t>viewMemberBehaviour</t>
+  </si>
+  <si>
+    <t>/cms/one-cms/member/information</t>
+  </si>
+  <si>
+    <t>{"mId":"593411913900101632","page":1,"size":10,"type":"behavior"}</t>
+  </si>
+  <si>
+    <t>getMemberBehaviourList</t>
+  </si>
+  <si>
+    <t>/cms/one-cms/member/behavior/list</t>
+  </si>
+  <si>
+    <t>{"member":"","type":"","startTime":"","endTime":"","page":1,"size":10}</t>
+  </si>
+  <si>
     <t>getActivityClassificationList</t>
   </si>
   <si>
@@ -92,8 +137,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>业绩管理-
-日报审核列表</t>
+    <t>业绩管理-日报审核列表</t>
   </si>
   <si>
     <t>楼层</t>
@@ -142,59 +186,6 @@
   </si>
   <si>
     <t>列表</t>
-  </si>
-  <si>
-    <t>dayDetails</t>
-  </si>
-  <si>
-    <t>/cms/sales-cms/report/day/view</t>
-  </si>
-  <si>
-    <t>业绩管理-
-日报审核查看</t>
-  </si>
-  <si>
-    <t>业绩数据</t>
-  </si>
-  <si>
-    <t>daydetailsOperation</t>
-  </si>
-  <si>
-    <t>/cms/sales-cms/report/operaRecord</t>
-  </si>
-  <si>
-    <t>操作记录</t>
-  </si>
-  <si>
-    <t>daydetailsBusiness</t>
-  </si>
-  <si>
-    <t>/cms/business-cms/getbusiness</t>
-  </si>
-  <si>
-    <t>商家信息</t>
-  </si>
-  <si>
-    <t>daySubmit</t>
-  </si>
-  <si>
-    <t>/cms/sales-cms/report/day/submit</t>
-  </si>
-  <si>
-    <t>{"businessId":2923,"tradeNo":"820588366344884224","adjustFlow":234,"remark":"","salesDetail":[{"skuId":2923001,"adjustTaxSalesAmount":234500,"adjustTradeCount":234}],"tradeDate":"2020-09-08","people":"郑晶磊1"}</t>
-  </si>
-  <si>
-    <t>业绩管理-
-日报审核审核</t>
-  </si>
-  <si>
-    <t>审核</t>
-  </si>
-  <si>
-    <t>dayReport</t>
-  </si>
-  <si>
-    <t>列表刷新</t>
   </si>
   <si>
     <t>result</t>
@@ -268,7 +259,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>{"settleAccountFlag":0,"confirmType":2,"confirmDate":"1","isMemberCoupons":"","sendType":"","memberPrivilegeImg":"","memberFeaturedImg":"","amount":"","deductionType":1,"couponsTypeRule":{"amount":"","full":"","minus":"","voucher":"","activityAmount":"","discount":""},"getLimit":{"type":1,"counts":"100"},"marketId":218,"explanation":"</t>
     </r>
@@ -277,7 +268,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>合生汇</t>
@@ -287,7 +277,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>8</t>
     </r>
@@ -296,7 +286,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元停车券描述</t>
@@ -306,7 +295,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>","couponsUseRule":{"userCount":"","userType":0,"userCondition":"1"},"couponsDetail":{"description":"&lt;p&gt;</t>
     </r>
@@ -315,7 +304,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>合生汇</t>
@@ -325,7 +313,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>8</t>
     </r>
@@ -334,7 +322,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元停车券说明</t>
@@ -344,7 +331,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;/p&gt;","reminder":"</t>
     </r>
@@ -353,7 +340,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>合生汇</t>
@@ -363,7 +349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>8</t>
     </r>
@@ -372,7 +358,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元停车券提示</t>
@@ -382,7 +367,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>"},"couponsBearFeeList":[],"type":"0","obtainMode":"1","obtainModeRule":"","useSpaces":["1"],"name":"</t>
     </r>
@@ -391,7 +376,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>合生汇</t>
@@ -401,7 +385,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>8</t>
     </r>
@@ -410,7 +394,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元停车券</t>
@@ -420,7 +403,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>","img":"http://kftcdn.hopsontong.com/FtGrbRgyqxoQHLPXImTLtT4Fyprs","count":"100","costHolder":"1","onlineStartDt":1596009872000,"onlineEndDt":1627660800000,"expireStartDt":"","expireEndDt":"","status":0,"countLimit":1,"addNum":"","couponsBusinessList":[],"couponLabelIds":[593,594]}</t>
     </r>
@@ -567,381 +550,21 @@
   </si>
   <si>
     <t>代金券4-2</t>
-  </si>
-  <si>
-    <t>getBusinessList</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hft-business-cms/business</t>
-  </si>
-  <si>
-    <t>marketId=218&amp;businessName=&amp;status=&amp;beginDt=&amp;endDt=&amp;isRefund=&amp;posType=&amp;faceOpen=&amp;pageSize=10&amp;pageNum=1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成功</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hft-business-cms/business/view</t>
-  </si>
-  <si>
-    <t>getBusinessInfo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateBusiness</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateBusinnessStatus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hft-business-cms/business/update/status</t>
-  </si>
-  <si>
-    <t>resetBusinessPwd</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hft-business-cms/business/reset/pwd</t>
-  </si>
-  <si>
-    <t>getCashierList</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hft-business-cms/business/cashier</t>
-  </si>
-  <si>
-    <t>viewCashier</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>marketId=218&amp;account=&amp;businessName=&amp;status=&amp;beginDt=&amp;endDt=&amp;pageSize=10&amp;pageNum=1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hft-business-cms/business/cashier/view</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessId=100009</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>status=0&amp;businessId=100117&amp;userId=186&amp;userName=%E5%86%89%E7%88%BD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessId=132007&amp;userId=186&amp;userName=%E5%86%89%E7%88%BD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>account=123214</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hft-business-cms/business/update</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"address":"","area":"","bankNo":"","businessId":"100007","businessName":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>优衣库</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="Menlo"/>
-        <family val="1"/>
-      </rPr>
-      <t>","city":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>石家庄市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="Menlo"/>
-        <family val="1"/>
-      </rPr>
-      <t>","companyName":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="Menlo"/>
-        <family val="1"/>
-      </rPr>
-      <t>","creditNo":"","dis":[{"key":1,"value":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>优惠券</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="Menlo"/>
-        <family val="1"/>
-      </rPr>
-      <t>"},{"key":2,"value":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>积分抵扣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="Menlo"/>
-        <family val="1"/>
-      </rPr>
-      <t>"}],"facePayment":{"alipay":0,"wechat":0},"identification":"2","isRefund":1,"marketId":218,"mobile":"18700356783","openBank":"","posType":1,"province":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>河北省</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="Menlo"/>
-        <family val="1"/>
-      </rPr>
-      <t>","receipt":[{"key":1,"value":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扫码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="Menlo"/>
-        <family val="1"/>
-      </rPr>
-      <t>"},{"key":2,"value":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>银行卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="Menlo"/>
-        <family val="1"/>
-      </rPr>
-      <t>"},{"key":3,"value":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>现金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="Menlo"/>
-        <family val="1"/>
-      </rPr>
-      <t>"}],"oldPosType":1,"userId":"186","userName":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>冉爽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF303942"/>
-        <rFont val="Menlo"/>
-        <family val="1"/>
-      </rPr>
-      <t>"}</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateCashier</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hft-business-cms/business/cashier/update</t>
-  </si>
-  <si>
-    <t>{"userId":"","userName":"","account":"10000702","businessId":"100007","marketId":218,"mobile":"18600347583","name":"王保磊"}</t>
-  </si>
-  <si>
-    <t>disableCashier</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableCashier</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hft-business-cms/business/cashier/update/status</t>
-  </si>
-  <si>
-    <t>/hft-business-cms/business/cashier/reset/pwd</t>
-  </si>
-  <si>
-    <t>resetCashierPWD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessId=100007&amp;account=10000712&amp;status=0&amp;userId=186&amp;userName=%E5%86%89%E7%88%BD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessId=100007&amp;account=10000712&amp;status=1&amp;userId=186&amp;userName=%E5%86%89%E7%88%BD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>account=10000712&amp;userId=186&amp;userName=%E5%86%89%E7%88%BD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>terminalList</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hft-business-cms/business/terminal</t>
-  </si>
-  <si>
-    <t>marketId=218&amp;businessName=&amp;posType=&amp;activateStatus=&amp;status=&amp;pageSize=10&amp;pageNum=1&amp;beginDt=&amp;endDt=</t>
-  </si>
-  <si>
-    <t>viewTerminal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>terminalNo=10000402</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hft-business-cms/business/terminal/view</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>disableTerminal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>enableTerminal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hft-business-cms/business/terminal/update/status</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessId=100004&amp;terminalNo=10000401&amp;status=0&amp;posType=1&amp;userId=186&amp;userName=%E5%86%89%E7%88%BD</t>
-  </si>
-  <si>
-    <t>businessId=100004&amp;terminalNo=10000401&amp;status=1&amp;posType=1&amp;userId=186&amp;userName=%E5%86%89%E7%88%BD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -954,7 +577,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -962,13 +584,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -977,7 +598,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -985,43 +605,158 @@
       <sz val="9"/>
       <color rgb="FF6A8759"/>
       <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF303942"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF303942"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF303942"/>
       <name val="Menlo"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1034,8 +769,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1102,16 +1023,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1127,6 +1287,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1166,10 +1332,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1205,58 +1371,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1514,1146 +1699,1255 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="32" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="42" style="32" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="7" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="14.4444444444444" style="34" customWidth="1"/>
+    <col min="2" max="2" width="18.1111111111111" style="34" customWidth="1"/>
+    <col min="3" max="3" width="42" style="34" customWidth="1"/>
+    <col min="4" max="4" width="8.33333333333333" style="34" customWidth="1"/>
+    <col min="5" max="5" width="7" style="34" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="52">
-      <c r="A2" s="34" t="s">
+    <row r="2" ht="43.2" spans="1:5">
+      <c r="A2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="35">
         <v>200</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="3" ht="43.2" spans="1:5">
+      <c r="A3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="35">
+        <v>200</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="72" spans="1:5">
+      <c r="A4" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="35">
+        <v>200</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="72" spans="1:5">
+      <c r="A5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="35">
+        <v>200</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2" spans="1:5">
+      <c r="A6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="35">
+        <v>200</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="1:5">
+      <c r="A7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="35">
+        <v>200</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="43.2" spans="1:5">
+      <c r="A8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="35">
+        <v>200</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="63.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="39.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="63.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="16.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="3" width="59.5" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="59.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="19.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="13.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" customWidth="1"/>
-    <col min="5" max="5" width="3.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="6.11111111111111" customWidth="1"/>
+    <col min="3" max="3" width="44.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="4.11111111111111" customWidth="1"/>
+    <col min="5" max="5" width="3.11111111111111" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="22" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="25" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="24">
         <v>200</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="24">
         <v>400</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="25" t="s">
         <v>63</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="24">
         <v>400</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="25" t="s">
         <v>66</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="26">
         <v>400</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="25" t="s">
         <v>69</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="26">
         <v>400</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="27" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="25" t="s">
         <v>72</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="26">
         <v>400</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="27" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="59.6640625" customWidth="1"/>
-    <col min="10" max="10" width="59.5" customWidth="1"/>
-    <col min="11" max="11" width="114.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
+    <col min="3" max="4" width="9.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="28.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="17.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="59.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="59.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="114.666666666667" customWidth="1"/>
     <col min="12" max="12" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="30">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="1" customFormat="1" ht="43.2" spans="1:12">
+      <c r="A2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:12">
+      <c r="A3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>7</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="10">
-        <v>44041.669814814799</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="G3" s="12">
+        <v>44041.6698148148</v>
+      </c>
+      <c r="H3" s="12">
         <v>44408</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:12">
+      <c r="A4" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9">
+      <c r="C4" s="10"/>
+      <c r="D4" s="11">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="10">
-        <v>44040.669814814799</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="G4" s="12">
+        <v>44040.6698148148</v>
+      </c>
+      <c r="H4" s="12">
         <v>44407</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:12">
+      <c r="A5" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11">
         <v>7</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="10">
-        <v>44044.669814814799</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="G5" s="12">
+        <v>44044.6698148148</v>
+      </c>
+      <c r="H5" s="12">
         <v>44407</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1">
-      <c r="A6" s="8" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:12">
+      <c r="A6" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="12">
         <v>44046</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="12">
         <v>44410</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:12">
+      <c r="A7" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="12">
         <v>44047</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="12">
         <v>44411</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1">
-      <c r="A8" s="8" t="s">
+    <row r="8" s="2" customFormat="1" spans="1:12">
+      <c r="A8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="12">
         <v>44048</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="12">
         <v>44412</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1">
-      <c r="A9" s="8" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:12">
+      <c r="A9" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="12">
         <v>44049</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="12">
         <v>44413</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1">
-      <c r="A10" s="8" t="s">
+    <row r="10" s="2" customFormat="1" spans="1:12">
+      <c r="A10" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="14">
         <v>30</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="12">
         <v>44050</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="12">
         <v>44414</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1">
-      <c r="A11" s="8" t="s">
+    <row r="11" s="2" customFormat="1" spans="1:12">
+      <c r="A11" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="14">
         <v>31</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="12">
         <v>44053</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="12">
         <v>44417</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1">
-      <c r="A12" s="13" t="s">
+    <row r="12" s="2" customFormat="1" spans="1:12">
+      <c r="A12" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="15">
         <v>32</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="12">
         <v>44054</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="12">
         <v>44418</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1">
-      <c r="A13" s="8" t="s">
+    <row r="13" s="2" customFormat="1" spans="1:12">
+      <c r="A13" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="14">
         <v>10</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="12">
         <v>44055</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="12">
         <v>44419</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1">
-      <c r="A14" s="8" t="s">
+    <row r="14" s="2" customFormat="1" spans="1:12">
+      <c r="A14" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="14">
         <v>10</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="12">
         <v>44056</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="12">
         <v>44420</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1">
-      <c r="A15" s="8" t="s">
+    <row r="15" s="2" customFormat="1" spans="1:12">
+      <c r="A15" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="14">
         <v>10</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="12">
         <v>44057</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="12">
         <v>44421</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="2" customFormat="1">
-      <c r="A16" s="8" t="s">
+    <row r="16" s="2" customFormat="1" spans="1:12">
+      <c r="A16" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="14">
         <v>10</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="12">
         <v>44060</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="12">
         <v>44424</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+    <row r="17" s="2" customFormat="1" spans="1:8">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="J4" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
-    <hyperlink ref="J5" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
-    <hyperlink ref="J6" r:id="rId4" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
-    <hyperlink ref="J7" r:id="rId5" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
-    <hyperlink ref="J8" r:id="rId6" xr:uid="{00000000-0004-0000-0D00-000005000000}"/>
-    <hyperlink ref="J9" r:id="rId7" xr:uid="{00000000-0004-0000-0D00-000006000000}"/>
-    <hyperlink ref="J10" r:id="rId8" xr:uid="{00000000-0004-0000-0D00-000007000000}"/>
-    <hyperlink ref="J11" r:id="rId9" xr:uid="{00000000-0004-0000-0D00-000008000000}"/>
-    <hyperlink ref="J12" r:id="rId10" xr:uid="{00000000-0004-0000-0D00-000009000000}"/>
-    <hyperlink ref="J13" r:id="rId11" xr:uid="{00000000-0004-0000-0D00-00000A000000}"/>
-    <hyperlink ref="J14" r:id="rId12" xr:uid="{00000000-0004-0000-0D00-00000B000000}"/>
-    <hyperlink ref="J15" r:id="rId13" xr:uid="{00000000-0004-0000-0D00-00000C000000}"/>
-    <hyperlink ref="J16" r:id="rId14" xr:uid="{00000000-0004-0000-0D00-00000D000000}"/>
+    <hyperlink ref="J3" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J4" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J5" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J6" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J7" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J8" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J9" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J10" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J11" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J12" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J13" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J14" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J15" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
+    <hyperlink ref="J16" r:id="rId1" display="http://kftcdn.hopsontong.com/FqvkVBR-4pLottYi6fS4hFJQWYup"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="32" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="15.1111111111111" style="34" customWidth="1"/>
+    <col min="2" max="2" width="21.7777777777778" style="34" customWidth="1"/>
+    <col min="3" max="3" width="36.4444444444444" style="34" customWidth="1"/>
+    <col min="4" max="4" width="10.6666666666667" style="34" customWidth="1"/>
+    <col min="5" max="5" width="8.77777777777778" style="34" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45">
-      <c r="A2" s="34" t="s">
-        <v>9</v>
+    <row r="2" ht="43.2" spans="1:5">
+      <c r="A2" s="35" t="s">
+        <v>26</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="34">
+        <v>28</v>
+      </c>
+      <c r="D2" s="35">
         <v>200</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10.7777777777778" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="79" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14" style="12" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="38.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.3333333333333" style="14" customWidth="1"/>
+    <col min="2" max="2" width="32.3333333333333" style="14" customWidth="1"/>
+    <col min="3" max="3" width="79" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13.7777777777778" style="14" customWidth="1"/>
+    <col min="6" max="6" width="16.1111111111111" style="12" customWidth="1"/>
+    <col min="7" max="7" width="15.4444444444444" style="12" customWidth="1"/>
+    <col min="8" max="8" width="38.3333333333333" style="2" customWidth="1"/>
     <col min="9" max="9" width="34" style="2" customWidth="1"/>
     <col min="10" max="10" width="31" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="17.1111111111111" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.7777777777778" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>13</v>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="12">
+        <v>31</v>
+      </c>
+      <c r="D2" s="14">
         <v>200</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="96.33203125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="23.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="36.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="96.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="19.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25" customHeight="1">
+    <row r="2" ht="25.05" customHeight="1" spans="1:8">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -2662,24 +2956,24 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -2688,22 +2982,22 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="41"/>
+        <v>35</v>
+      </c>
+      <c r="G3" s="14"/>
       <c r="H3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="42" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="42" customHeight="1" spans="1:8">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -2712,22 +3006,22 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="41"/>
+        <v>44</v>
+      </c>
+      <c r="G4" s="14"/>
       <c r="H4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="33" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:8">
       <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2736,22 +3030,22 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="41"/>
+        <v>35</v>
+      </c>
+      <c r="G5" s="14"/>
       <c r="H5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="58" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" ht="58.05" customHeight="1" spans="1:8">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>34</v>
+        <v>49</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>51</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -2760,827 +3054,231 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="41"/>
+        <v>44</v>
+      </c>
+      <c r="G6" s="14"/>
       <c r="H6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="29" customHeight="1">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7">
-        <v>200</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="31" customHeight="1">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8">
-        <v>200</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="41"/>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="25" customHeight="1">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9">
-        <v>200</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="41"/>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="54" customHeight="1">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10">
-        <v>200</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="46" customHeight="1">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11">
-        <v>200</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="7" ht="34.05" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="G2:G6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="23.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="23.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="23.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="13.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="4.77777777777778" customWidth="1"/>
+    <col min="7" max="7" width="4.11111111111111" style="30" customWidth="1"/>
+    <col min="8" max="8" width="7.77777777777778" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.4444444444444" customWidth="1"/>
     <col min="10" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="41.1640625" customWidth="1"/>
-    <col min="3" max="3" width="71.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="71.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="15.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="33">
-        <v>200</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="33">
-        <v>200</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="33">
-        <v>200</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="33">
-        <v>200</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="33">
-        <v>200</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="33">
-        <v>200</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="33">
-        <v>200</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="33">
-        <v>200</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="33">
-        <v>200</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="33">
-        <v>200</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="33">
-        <v>200</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="33">
-        <v>200</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="33">
-        <v>200</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="33">
-        <v>200</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="33">
-        <v>200</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="D17" s="33"/>
-    </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="D18" s="33"/>
-    </row>
-    <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="D19" s="33"/>
-    </row>
-    <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" spans="1:4" ht="15">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="D21" s="33"/>
-    </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="D22" s="33"/>
-    </row>
-    <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="D24" s="33"/>
-    </row>
-    <row r="25" spans="1:4" ht="15">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="D25" s="33"/>
-    </row>
-    <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="D26" s="33"/>
-    </row>
-    <row r="27" spans="1:4" ht="15">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="1:4" ht="15">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="D29" s="33"/>
-    </row>
-    <row r="30" spans="1:4" ht="15">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="D30" s="33"/>
-    </row>
-    <row r="31" spans="1:4" ht="15">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="D31" s="33"/>
-    </row>
-    <row r="32" spans="1:4" ht="15">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="D32" s="33"/>
-    </row>
-    <row r="33" spans="1:4" ht="15">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="1:4" ht="15">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="D34" s="33"/>
-    </row>
-    <row r="35" spans="1:4" ht="15">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="D35" s="33"/>
-    </row>
-    <row r="36" spans="1:4" ht="15">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="D36" s="33"/>
-    </row>
-    <row r="37" spans="1:4" ht="15">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="D37" s="33"/>
-    </row>
-    <row r="38" spans="1:4" ht="15">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="D38" s="33"/>
-    </row>
-    <row r="39" spans="1:4" ht="15">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="D39" s="33"/>
-    </row>
-    <row r="40" spans="1:4" ht="15">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="D40" s="33"/>
-    </row>
-    <row r="41" spans="1:4" ht="15">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="D41" s="33"/>
-    </row>
-    <row r="42" spans="1:4" ht="15">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="D42" s="33"/>
-    </row>
-    <row r="43" spans="1:4" ht="15">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="D43" s="33"/>
-    </row>
-    <row r="44" spans="1:4" ht="15">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="D44" s="33"/>
-    </row>
-    <row r="45" spans="1:4" ht="15">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="D45" s="33"/>
-    </row>
-    <row r="46" spans="1:4" ht="15">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="D46" s="33"/>
-    </row>
-    <row r="47" spans="1:4" ht="15">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:4" ht="15">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4" ht="15">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="D49" s="33"/>
-    </row>
-    <row r="50" spans="1:4" ht="15">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="D50" s="33"/>
-    </row>
-    <row r="51" spans="1:4" ht="15">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" spans="1:4" ht="15">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="D52" s="33"/>
-    </row>
-    <row r="53" spans="1:4" ht="15">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="D53" s="33"/>
-    </row>
-    <row r="54" spans="1:4" ht="15">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="D54" s="33"/>
-    </row>
-    <row r="55" spans="1:4" ht="15">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="D55" s="33"/>
-    </row>
-    <row r="56" spans="1:4" ht="15">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="D56" s="33"/>
-    </row>
-    <row r="57" spans="1:4" ht="15">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="D57" s="33"/>
-    </row>
-    <row r="58" spans="1:4" ht="15">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="D58" s="33"/>
-    </row>
-    <row r="59" spans="1:4" ht="15">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="D59" s="33"/>
-    </row>
-    <row r="60" spans="1:4" ht="15">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="D60" s="33"/>
-    </row>
-    <row r="61" spans="1:4" ht="15">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="D61" s="33"/>
-    </row>
-    <row r="62" spans="1:4" ht="15">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="56.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="56.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="28" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testcase/test_datas.xlsx
+++ b/testcase/test_datas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="125">
   <si>
     <t>case_name</t>
   </si>
@@ -86,7 +86,10 @@
     <t>/cms/member-cms/member/memberinfo</t>
   </si>
   <si>
-    <t>{"marketId":218,"nickName":"198****0001","mMobile":"19800000004","sex":1,"birthday":""}</t>
+    <t>{"marketId":218,"nickName":"198****0001","mMobile":"19800000005","sex":1,"birthday":""}</t>
+  </si>
+  <si>
+    <t>该手机已存在，请更换新的手机号码或者查询原手机号会员信息。</t>
   </si>
   <si>
     <t>viewMemberBehaviour</t>
@@ -105,6 +108,12 @@
   </si>
   <si>
     <t>{"member":"","type":"","startTime":"","endTime":"","page":1,"size":10}</t>
+  </si>
+  <si>
+    <t>getMemberPlusList</t>
+  </si>
+  <si>
+    <t>/cms/personal-cms/memberPlusVip/218?marketId=218&amp;mMobile=&amp;priceTitle=&amp;priceId=&amp;priceMonth=&amp;plusCardType=0&amp;status=&amp;pageNum=1&amp;pageSize=10</t>
   </si>
   <si>
     <t>getActivityClassificationList</t>
@@ -557,11 +566,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="26">
@@ -614,9 +623,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,7 +668,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,15 +689,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,78 +751,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -771,7 +780,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,25 +864,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,7 +918,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,133 +954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,13 +1033,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,6 +1072,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1070,30 +1092,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,8 +1114,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,10 +1138,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1141,16 +1150,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1159,115 +1168,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1705,13 +1714,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.4444444444444" style="34" customWidth="1"/>
     <col min="2" max="2" width="18.1111111111111" style="34" customWidth="1"/>
@@ -1738,7 +1747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="43.2" spans="1:5">
+    <row r="2" ht="34.2" spans="1:5">
       <c r="A2" s="35" t="s">
         <v>5</v>
       </c>
@@ -1803,7 +1812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="43.2" spans="1:5">
+    <row r="6" ht="144" spans="1:5">
       <c r="A6" s="34" t="s">
         <v>17</v>
       </c>
@@ -1814,21 +1823,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="35">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="43.2" spans="1:5">
       <c r="A7" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="35">
         <v>200</v>
@@ -1839,18 +1848,32 @@
     </row>
     <row r="8" ht="43.2" spans="1:5">
       <c r="A8" s="34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="35">
         <v>200</v>
       </c>
       <c r="E8" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="129.6" spans="1:5">
+      <c r="A9" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="35">
+        <v>200</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2014,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>3</v>
@@ -2025,16 +2048,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E2" s="24">
         <v>200</v>
@@ -2045,93 +2068,93 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>55</v>
-      </c>
       <c r="C3" s="25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3" s="24">
         <v>400</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>60</v>
       </c>
       <c r="E4" s="24">
         <v>400</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E5" s="26">
         <v>400</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E6" s="26">
         <v>400</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2140,7 +2163,7 @@
         <v>400</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2176,13 +2199,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2193,63 +2216,63 @@
       <c r="J1" s="6"/>
       <c r="K1" s="17"/>
       <c r="L1" s="18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="43.2" spans="1:12">
       <c r="A2" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:12">
       <c r="A3" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C3" s="10">
         <v>7</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G3" s="12">
         <v>44041.6698148148</v>
@@ -2258,34 +2281,34 @@
         <v>44408</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:12">
       <c r="A4" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G4" s="12">
         <v>44040.6698148148</v>
@@ -2294,34 +2317,34 @@
         <v>44407</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11">
         <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G5" s="12">
         <v>44044.6698148148</v>
@@ -2330,34 +2353,34 @@
         <v>44407</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:12">
       <c r="A6" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G6" s="12">
         <v>44046</v>
@@ -2366,34 +2389,34 @@
         <v>44410</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G7" s="12">
         <v>44047</v>
@@ -2402,34 +2425,34 @@
         <v>44411</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:12">
       <c r="A8" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G8" s="12">
         <v>44048</v>
@@ -2438,34 +2461,34 @@
         <v>44412</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:12">
       <c r="A9" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G9" s="12">
         <v>44049</v>
@@ -2474,34 +2497,34 @@
         <v>44413</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:12">
       <c r="A10" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C10" s="14">
         <v>30</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G10" s="12">
         <v>44050</v>
@@ -2510,34 +2533,34 @@
         <v>44414</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:12">
       <c r="A11" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C11" s="14">
         <v>31</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G11" s="12">
         <v>44053</v>
@@ -2546,34 +2569,34 @@
         <v>44417</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:12">
       <c r="A12" s="15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C12" s="15">
         <v>32</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G12" s="12">
         <v>44054</v>
@@ -2582,34 +2605,34 @@
         <v>44418</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:12">
       <c r="A13" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C13" s="14">
         <v>10</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G13" s="12">
         <v>44055</v>
@@ -2618,34 +2641,34 @@
         <v>44419</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:12">
       <c r="A14" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C14" s="14">
         <v>10</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G14" s="12">
         <v>44056</v>
@@ -2654,34 +2677,34 @@
         <v>44420</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:12">
       <c r="A15" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C15" s="14">
         <v>10</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G15" s="12">
         <v>44057</v>
@@ -2690,34 +2713,34 @@
         <v>44421</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:12">
       <c r="A16" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C16" s="14">
         <v>10</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G16" s="12">
         <v>44060</v>
@@ -2726,16 +2749,16 @@
         <v>44424</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:8">
@@ -2814,13 +2837,13 @@
     </row>
     <row r="2" ht="43.2" spans="1:5">
       <c r="A2" s="35" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" s="35">
         <v>200</v>
@@ -2880,13 +2903,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" s="14">
         <v>200</v>
@@ -2941,13 +2964,13 @@
     </row>
     <row r="2" ht="25.05" customHeight="1" spans="1:8">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -2956,24 +2979,24 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -2982,22 +3005,22 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:8">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -3006,22 +3029,22 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:8">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -3030,22 +3053,22 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" ht="58.05" customHeight="1" spans="1:8">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -3054,11 +3077,11 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" ht="34.05" customHeight="1"/>

--- a/testcase/test_datas.xlsx
+++ b/testcase/test_datas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10914"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasule/PycharmProjects/hopsapi_test/testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A3EF0A-3A83-3F48-B4BF-54F694314339}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443E2456-F92C-2448-BE3C-D6036DF72C46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="-20320" windowWidth="26200" windowHeight="12780" tabRatio="880" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3025,7 +3025,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -3310,7 +3310,9 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="33"/>
+      <c r="A17" s="33">
+        <v>1</v>
+      </c>
       <c r="B17" s="33"/>
       <c r="D17" s="33"/>
     </row>

--- a/testcase/test_datas.xlsx
+++ b/testcase/test_datas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="146">
   <si>
     <t>case_name</t>
   </si>
@@ -114,6 +114,69 @@
   </si>
   <si>
     <t>/cms/personal-cms/memberPlusVip/218?marketId=218&amp;mMobile=&amp;priceTitle=&amp;priceId=&amp;priceMonth=&amp;plusCardType=0&amp;status=&amp;pageNum=1&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>viewMemberPlusInfo</t>
+  </si>
+  <si>
+    <t>/cms/personal-cms/buyRecords/218?mId=831951994373197824</t>
+  </si>
+  <si>
+    <t>validityMemberPointList</t>
+  </si>
+  <si>
+    <t>/cms/points-cms/validity-point/list</t>
+  </si>
+  <si>
+    <t>{"marketId":218,"nickName":"","validityUser":"","validityTime":"","pageSize":10,"pageNum":1}</t>
+  </si>
+  <si>
+    <t>会员积分调整列表</t>
+  </si>
+  <si>
+    <t>validityMemberPoint</t>
+  </si>
+  <si>
+    <t>/cms/points-cms/validity-point</t>
+  </si>
+  <si>
+    <t>{"marketId":218,"validityUser":"荆晓晨","memberMobile":"16619778851","nickName":"duh葱女主角太贴心咋还上班呢","validityContent":"1","primordialPoint":0,"expireTime":"2020-12-31 23:59:59","memberId":"680850703173857300","point":1,"state":"0","fixedPoint":1,"countPoint":"","selectValue":"","picUrl":[],"consumeNo":"","consumePoint":0,"consumeTime":1602259200000,"modifyRemark":"2","businessId":""}</t>
+  </si>
+  <si>
+    <t>会员积分调整</t>
+  </si>
+  <si>
+    <t>viewValidityMemberPoint</t>
+  </si>
+  <si>
+    <t>/cms/points-cms/validity-point/230916</t>
+  </si>
+  <si>
+    <t>会员积分调整详情查看</t>
+  </si>
+  <si>
+    <t>getPointRuleList</t>
+  </si>
+  <si>
+    <t>/cms/points-cms/point-rule/list</t>
+  </si>
+  <si>
+    <t>{"marketId":218,"pointMode":"","status":"","ruleName":"","expireDt":"","pageSize":10,"pageNum":1}</t>
+  </si>
+  <si>
+    <t>积分规则列表</t>
+  </si>
+  <si>
+    <t>addPointRule</t>
+  </si>
+  <si>
+    <t>/cms/one-cms/points/point-rule</t>
+  </si>
+  <si>
+    <t>{"pointSource":"0","pointMode":"9","pointBusinessRule":[],"startDt":1604073600000,"endDt":1634313600000,"ruleName":"自动化测试","ruleType":0,"pointValue":1,"expireDt":1635523200000,"status":0,"marketId":218,"limitContent":{"rule":{"countCheck":0,"count":"","countType":0,"totalCountCheck":0,"totalCount":"","totalCountType":0,"timeCheck":0,"startTime":"","endTime":"","ruleStartTime":"","ruleEndTime":""},"jump":{"jumpPointCycleUnit":"","jumpPointValueList":[{"startCycle":"","endCycle":"","jumpPointValue":""},{"startCycle":"","endCycle":"","jumpPointValue":""}]}},"note":""}</t>
+  </si>
+  <si>
+    <t>积分规则创建</t>
   </si>
   <si>
     <t>getActivityClassificationList</t>
@@ -566,12 +629,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -630,6 +693,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -639,21 +718,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,15 +739,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,23 +760,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -729,7 +785,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,16 +799,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -780,7 +843,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,7 +927,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,67 +945,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,49 +981,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,31 +999,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,6 +1096,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1044,21 +1133,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,23 +1149,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,19 +1173,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,7 +1204,7 @@
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1150,16 +1213,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1171,112 +1234,112 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1714,13 +1777,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.4444444444444" style="34" customWidth="1"/>
     <col min="2" max="2" width="18.1111111111111" style="34" customWidth="1"/>
@@ -1875,6 +1938,117 @@
       </c>
       <c r="E9" s="34" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="57.6" spans="1:5">
+      <c r="A10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="35">
+        <v>200</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="43.2" spans="1:6">
+      <c r="A11" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="35">
+        <v>200</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="158.4" spans="1:6">
+      <c r="A12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="35">
+        <v>200</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="43.2" spans="1:6">
+      <c r="A13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="35">
+        <v>200</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" ht="43.2" spans="1:6">
+      <c r="A14" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="35">
+        <v>200</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" ht="216" spans="1:6">
+      <c r="A15" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="35">
+        <v>200</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2037,7 +2211,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>3</v>
@@ -2048,16 +2222,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="24" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="E2" s="24">
         <v>200</v>
@@ -2068,93 +2242,93 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="24" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E3" s="24">
         <v>400</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="24" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E4" s="24">
         <v>400</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="24" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E5" s="26">
         <v>400</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="24" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E6" s="26">
         <v>400</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="27" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2163,7 +2337,7 @@
         <v>400</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2199,13 +2373,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2216,63 +2390,63 @@
       <c r="J1" s="6"/>
       <c r="K1" s="17"/>
       <c r="L1" s="18" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="43.2" spans="1:12">
       <c r="A2" s="7" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:12">
       <c r="A3" s="10" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C3" s="10">
         <v>7</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="G3" s="12">
         <v>44041.6698148148</v>
@@ -2281,34 +2455,34 @@
         <v>44408</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:12">
       <c r="A4" s="10" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G4" s="12">
         <v>44040.6698148148</v>
@@ -2317,34 +2491,34 @@
         <v>44407</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11">
         <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="G5" s="12">
         <v>44044.6698148148</v>
@@ -2353,34 +2527,34 @@
         <v>44407</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:12">
       <c r="A6" s="10" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="G6" s="12">
         <v>44046</v>
@@ -2389,34 +2563,34 @@
         <v>44410</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="G7" s="12">
         <v>44047</v>
@@ -2425,34 +2599,34 @@
         <v>44411</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:12">
       <c r="A8" s="10" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G8" s="12">
         <v>44048</v>
@@ -2461,34 +2635,34 @@
         <v>44412</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:12">
       <c r="A9" s="10" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="10" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="G9" s="12">
         <v>44049</v>
@@ -2497,34 +2671,34 @@
         <v>44413</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:12">
       <c r="A10" s="10" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C10" s="14">
         <v>30</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="10" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="G10" s="12">
         <v>44050</v>
@@ -2533,34 +2707,34 @@
         <v>44414</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:12">
       <c r="A11" s="10" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C11" s="14">
         <v>31</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="10" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G11" s="12">
         <v>44053</v>
@@ -2569,34 +2743,34 @@
         <v>44417</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:12">
       <c r="A12" s="15" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C12" s="15">
         <v>32</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="15" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="G12" s="12">
         <v>44054</v>
@@ -2605,34 +2779,34 @@
         <v>44418</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:12">
       <c r="A13" s="10" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C13" s="14">
         <v>10</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="10" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="G13" s="12">
         <v>44055</v>
@@ -2641,34 +2815,34 @@
         <v>44419</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:12">
       <c r="A14" s="10" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C14" s="14">
         <v>10</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="10" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G14" s="12">
         <v>44056</v>
@@ -2677,34 +2851,34 @@
         <v>44420</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:12">
       <c r="A15" s="10" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C15" s="14">
         <v>10</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="10" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="G15" s="12">
         <v>44057</v>
@@ -2713,34 +2887,34 @@
         <v>44421</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:12">
       <c r="A16" s="10" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C16" s="14">
         <v>10</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="10" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="G16" s="12">
         <v>44060</v>
@@ -2749,16 +2923,16 @@
         <v>44424</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:8">
@@ -2837,13 +3011,13 @@
     </row>
     <row r="2" ht="43.2" spans="1:5">
       <c r="A2" s="35" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D2" s="35">
         <v>200</v>
@@ -2903,13 +3077,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D2" s="14">
         <v>200</v>
@@ -2964,13 +3138,13 @@
     </row>
     <row r="2" ht="25.05" customHeight="1" spans="1:8">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -2979,24 +3153,24 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -3005,22 +3179,22 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:8">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -3029,22 +3203,22 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:8">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -3053,22 +3227,22 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" ht="58.05" customHeight="1" spans="1:8">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -3077,11 +3251,11 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" ht="34.05" customHeight="1"/>

--- a/testcase/test_datas.xlsx
+++ b/testcase/test_datas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="149">
   <si>
     <t>case_name</t>
   </si>
@@ -86,7 +86,7 @@
     <t>/cms/member-cms/member/memberinfo</t>
   </si>
   <si>
-    <t>{"marketId":218,"nickName":"198****0001","mMobile":"19800000005","sex":1,"birthday":""}</t>
+    <t>{"marketId":218,"nickName":"198****0001","mMobile":"18600750013","sex":1,"birthday":""}</t>
   </si>
   <si>
     <t>该手机已存在，请更换新的手机号码或者查询原手机号会员信息。</t>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>积分规则创建</t>
+  </si>
+  <si>
+    <t>deletePointRule</t>
+  </si>
+  <si>
+    <t>/cms/points-cms/point-rule/delete/</t>
+  </si>
+  <si>
+    <t>积分规则弃用</t>
   </si>
   <si>
     <t>getActivityClassificationList</t>
@@ -629,9 +638,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -687,7 +696,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,16 +710,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,6 +719,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,13 +740,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -746,15 +747,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,9 +776,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,13 +794,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,6 +812,22 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -843,36 +852,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -885,7 +864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,13 +876,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,19 +906,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,13 +936,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,19 +966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,7 +978,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,31 +1014,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,6 +1116,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1140,39 +1167,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1193,6 +1187,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1201,10 +1210,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1213,16 +1222,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1231,119 +1240,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1371,7 +1380,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1380,7 +1389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1434,7 +1443,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1450,9 +1459,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" quotePrefix="1">
@@ -1777,10 +1783,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1810,14 +1816,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="34.2" spans="1:5">
+    <row r="2" ht="57.6" spans="1:5">
       <c r="A2" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="35">
@@ -2049,6 +2055,23 @@
       </c>
       <c r="F15" s="34" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="16" ht="43.2" spans="1:6">
+      <c r="A16" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="35">
+        <v>200</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2211,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>3</v>
@@ -2222,16 +2245,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="24" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="E2" s="24">
         <v>200</v>
@@ -2242,93 +2265,93 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>79</v>
-      </c>
       <c r="C3" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="E3" s="24">
         <v>400</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>87</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>84</v>
       </c>
       <c r="E4" s="24">
         <v>400</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>84</v>
+        <v>93</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="E5" s="26">
         <v>400</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="24" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>84</v>
+        <v>96</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="E6" s="26">
         <v>400</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2337,7 +2360,7 @@
         <v>400</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2373,13 +2396,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2390,63 +2413,63 @@
       <c r="J1" s="6"/>
       <c r="K1" s="17"/>
       <c r="L1" s="18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="43.2" spans="1:12">
       <c r="A2" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:12">
       <c r="A3" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C3" s="10">
         <v>7</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G3" s="12">
         <v>44041.6698148148</v>
@@ -2455,34 +2478,34 @@
         <v>44408</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:12">
       <c r="A4" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G4" s="12">
         <v>44040.6698148148</v>
@@ -2491,34 +2514,34 @@
         <v>44407</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11">
         <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G5" s="12">
         <v>44044.6698148148</v>
@@ -2527,34 +2550,34 @@
         <v>44407</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:12">
       <c r="A6" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G6" s="12">
         <v>44046</v>
@@ -2563,34 +2586,34 @@
         <v>44410</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G7" s="12">
         <v>44047</v>
@@ -2599,34 +2622,34 @@
         <v>44411</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:12">
       <c r="A8" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G8" s="12">
         <v>44048</v>
@@ -2635,34 +2658,34 @@
         <v>44412</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:12">
       <c r="A9" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G9" s="12">
         <v>44049</v>
@@ -2671,34 +2694,34 @@
         <v>44413</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:12">
       <c r="A10" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C10" s="14">
         <v>30</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G10" s="12">
         <v>44050</v>
@@ -2707,34 +2730,34 @@
         <v>44414</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:12">
       <c r="A11" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C11" s="14">
         <v>31</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G11" s="12">
         <v>44053</v>
@@ -2743,34 +2766,34 @@
         <v>44417</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:12">
       <c r="A12" s="15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C12" s="15">
         <v>32</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G12" s="12">
         <v>44054</v>
@@ -2779,34 +2802,34 @@
         <v>44418</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:12">
       <c r="A13" s="10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C13" s="14">
         <v>10</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G13" s="12">
         <v>44055</v>
@@ -2815,34 +2838,34 @@
         <v>44419</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:12">
       <c r="A14" s="10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C14" s="14">
         <v>10</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G14" s="12">
         <v>44056</v>
@@ -2851,34 +2874,34 @@
         <v>44420</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:12">
       <c r="A15" s="10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C15" s="14">
         <v>10</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G15" s="12">
         <v>44057</v>
@@ -2887,34 +2910,34 @@
         <v>44421</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:12">
       <c r="A16" s="10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C16" s="14">
         <v>10</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G16" s="12">
         <v>44060</v>
@@ -2923,16 +2946,16 @@
         <v>44424</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:8">
@@ -3011,13 +3034,13 @@
     </row>
     <row r="2" ht="43.2" spans="1:5">
       <c r="A2" s="35" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D2" s="35">
         <v>200</v>
@@ -3077,13 +3100,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D2" s="14">
         <v>200</v>
@@ -3138,13 +3161,13 @@
     </row>
     <row r="2" ht="25.05" customHeight="1" spans="1:8">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -3153,24 +3176,24 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -3179,22 +3202,22 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:8">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -3203,22 +3226,22 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:8">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -3227,22 +3250,22 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" ht="58.05" customHeight="1" spans="1:8">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -3251,11 +3274,11 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" ht="34.05" customHeight="1"/>

--- a/testcase/test_datas.xlsx
+++ b/testcase/test_datas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="151">
   <si>
     <t>case_name</t>
   </si>
@@ -89,9 +89,6 @@
     <t>{"marketId":218,"nickName":"198****0001","mMobile":"18600750013","sex":1,"birthday":""}</t>
   </si>
   <si>
-    <t>该手机已存在，请更换新的手机号码或者查询原手机号会员信息。</t>
-  </si>
-  <si>
     <t>viewMemberBehaviour</t>
   </si>
   <si>
@@ -155,6 +152,18 @@
     <t>会员积分调整详情查看</t>
   </si>
   <si>
+    <t>addPointRule</t>
+  </si>
+  <si>
+    <t>/cms/one-cms/points/point-rule</t>
+  </si>
+  <si>
+    <t>{"pointSource":"0","pointMode":"9","pointBusinessRule":[],"startDt":1604073600000,"endDt":1634313600000,"ruleName":"自动化测试","ruleType":0,"pointValue":1,"expireDt":1635523200000,"status":0,"marketId":218,"limitContent":{"rule":{"countCheck":0,"count":"","countType":0,"totalCountCheck":0,"totalCount":"","totalCountType":0,"timeCheck":0,"startTime":"","endTime":"","ruleStartTime":"","ruleEndTime":""},"jump":{"jumpPointCycleUnit":"","jumpPointValueList":[{"startCycle":"","endCycle":"","jumpPointValue":""},{"startCycle":"","endCycle":"","jumpPointValue":""}]}},"note":""}</t>
+  </si>
+  <si>
+    <t>积分规则创建</t>
+  </si>
+  <si>
     <t>getPointRuleList</t>
   </si>
   <si>
@@ -167,18 +176,6 @@
     <t>积分规则列表</t>
   </si>
   <si>
-    <t>addPointRule</t>
-  </si>
-  <si>
-    <t>/cms/one-cms/points/point-rule</t>
-  </si>
-  <si>
-    <t>{"pointSource":"0","pointMode":"9","pointBusinessRule":[],"startDt":1604073600000,"endDt":1634313600000,"ruleName":"自动化测试","ruleType":0,"pointValue":1,"expireDt":1635523200000,"status":0,"marketId":218,"limitContent":{"rule":{"countCheck":0,"count":"","countType":0,"totalCountCheck":0,"totalCount":"","totalCountType":0,"timeCheck":0,"startTime":"","endTime":"","ruleStartTime":"","ruleEndTime":""},"jump":{"jumpPointCycleUnit":"","jumpPointValueList":[{"startCycle":"","endCycle":"","jumpPointValue":""},{"startCycle":"","endCycle":"","jumpPointValue":""}]}},"note":""}</t>
-  </si>
-  <si>
-    <t>积分规则创建</t>
-  </si>
-  <si>
     <t>deletePointRule</t>
   </si>
   <si>
@@ -186,6 +183,15 @@
   </si>
   <si>
     <t>积分规则弃用</t>
+  </si>
+  <si>
+    <t>viewPointRule</t>
+  </si>
+  <si>
+    <t>/cms/points-cms/point-rule/836</t>
+  </si>
+  <si>
+    <t>积分规则查看</t>
   </si>
   <si>
     <t>getActivityClassificationList</t>
@@ -638,12 +644,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -696,7 +702,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,15 +738,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,7 +769,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,21 +811,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -791,43 +829,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -852,7 +858,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,13 +918,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,79 +948,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +972,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,37 +1002,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,7 +1038,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,44 +1113,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,9 +1137,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,6 +1190,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1210,10 +1216,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,16 +1228,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1240,115 +1246,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1783,10 +1789,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1881,7 +1887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="144" spans="1:5">
+    <row r="6" ht="43.2" spans="1:5">
       <c r="A6" s="34" t="s">
         <v>17</v>
       </c>
@@ -1892,21 +1898,21 @@
         <v>19</v>
       </c>
       <c r="D6" s="35">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" ht="43.2" spans="1:5">
       <c r="A7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="C7" s="34" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>23</v>
       </c>
       <c r="D7" s="35">
         <v>200</v>
@@ -1917,13 +1923,13 @@
     </row>
     <row r="8" ht="43.2" spans="1:5">
       <c r="A8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="C8" s="34" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>26</v>
       </c>
       <c r="D8" s="35">
         <v>200</v>
@@ -1934,10 +1940,10 @@
     </row>
     <row r="9" ht="129.6" spans="1:5">
       <c r="A9" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="35">
         <v>200</v>
@@ -1948,10 +1954,10 @@
     </row>
     <row r="10" ht="57.6" spans="1:5">
       <c r="A10" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="35">
         <v>200</v>
@@ -1962,13 +1968,13 @@
     </row>
     <row r="11" ht="43.2" spans="1:6">
       <c r="A11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="C11" s="34" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="35">
         <v>200</v>
@@ -1977,18 +1983,18 @@
         <v>8</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="158.4" spans="1:6">
       <c r="A12" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="C12" s="34" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>37</v>
       </c>
       <c r="D12" s="35">
         <v>200</v>
@@ -1997,15 +2003,15 @@
         <v>8</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:6">
       <c r="A13" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>40</v>
       </c>
       <c r="D13" s="35">
         <v>200</v>
@@ -2014,18 +2020,18 @@
         <v>8</v>
       </c>
       <c r="F13" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" ht="216" spans="1:6">
+      <c r="A14" s="34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" ht="43.2" spans="1:6">
-      <c r="A14" s="34" t="s">
+      <c r="B14" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="C14" s="34" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>44</v>
       </c>
       <c r="D14" s="35">
         <v>200</v>
@@ -2034,18 +2040,18 @@
         <v>8</v>
       </c>
       <c r="F14" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="43.2" spans="1:6">
+      <c r="A15" s="34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" ht="216" spans="1:6">
-      <c r="A15" s="34" t="s">
+      <c r="B15" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="C15" s="34" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>48</v>
       </c>
       <c r="D15" s="35">
         <v>200</v>
@@ -2054,15 +2060,15 @@
         <v>8</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="43.2" spans="1:6">
       <c r="A16" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>50</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>51</v>
       </c>
       <c r="D16" s="35">
         <v>200</v>
@@ -2071,7 +2077,24 @@
         <v>8</v>
       </c>
       <c r="F16" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" ht="43.2" spans="1:6">
+      <c r="A17" s="34" t="s">
         <v>52</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="35">
+        <v>200</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>3</v>
@@ -2245,16 +2268,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E2" s="24">
         <v>200</v>
@@ -2265,93 +2288,93 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E3" s="24">
         <v>400</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>89</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>87</v>
       </c>
       <c r="E4" s="24">
         <v>400</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E5" s="26">
         <v>400</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E6" s="26">
         <v>400</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2360,7 +2383,7 @@
         <v>400</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2396,13 +2419,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2413,63 +2436,63 @@
       <c r="J1" s="6"/>
       <c r="K1" s="17"/>
       <c r="L1" s="18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="43.2" spans="1:12">
       <c r="A2" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:12">
       <c r="A3" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C3" s="10">
         <v>7</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G3" s="12">
         <v>44041.6698148148</v>
@@ -2478,34 +2501,34 @@
         <v>44408</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:12">
       <c r="A4" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G4" s="12">
         <v>44040.6698148148</v>
@@ -2514,34 +2537,34 @@
         <v>44407</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11">
         <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G5" s="12">
         <v>44044.6698148148</v>
@@ -2550,34 +2573,34 @@
         <v>44407</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:12">
       <c r="A6" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G6" s="12">
         <v>44046</v>
@@ -2586,34 +2609,34 @@
         <v>44410</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G7" s="12">
         <v>44047</v>
@@ -2622,34 +2645,34 @@
         <v>44411</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:12">
       <c r="A8" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G8" s="12">
         <v>44048</v>
@@ -2658,34 +2681,34 @@
         <v>44412</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:12">
       <c r="A9" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G9" s="12">
         <v>44049</v>
@@ -2694,34 +2717,34 @@
         <v>44413</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:12">
       <c r="A10" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C10" s="14">
         <v>30</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G10" s="12">
         <v>44050</v>
@@ -2730,34 +2753,34 @@
         <v>44414</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:12">
       <c r="A11" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C11" s="14">
         <v>31</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G11" s="12">
         <v>44053</v>
@@ -2766,34 +2789,34 @@
         <v>44417</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:12">
       <c r="A12" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C12" s="15">
         <v>32</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G12" s="12">
         <v>44054</v>
@@ -2802,34 +2825,34 @@
         <v>44418</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:12">
       <c r="A13" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C13" s="14">
         <v>10</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G13" s="12">
         <v>44055</v>
@@ -2838,34 +2861,34 @@
         <v>44419</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:12">
       <c r="A14" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C14" s="14">
         <v>10</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G14" s="12">
         <v>44056</v>
@@ -2874,34 +2897,34 @@
         <v>44420</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:12">
       <c r="A15" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C15" s="14">
         <v>10</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G15" s="12">
         <v>44057</v>
@@ -2910,34 +2933,34 @@
         <v>44421</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:12">
       <c r="A16" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C16" s="14">
         <v>10</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G16" s="12">
         <v>44060</v>
@@ -2946,16 +2969,16 @@
         <v>44424</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:8">
@@ -3034,13 +3057,13 @@
     </row>
     <row r="2" ht="43.2" spans="1:5">
       <c r="A2" s="35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="35">
         <v>200</v>
@@ -3100,13 +3123,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" s="14">
         <v>200</v>
@@ -3161,13 +3184,13 @@
     </row>
     <row r="2" ht="25.05" customHeight="1" spans="1:8">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -3176,24 +3199,24 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -3202,22 +3225,22 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:8">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -3226,22 +3249,22 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:8">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -3250,22 +3273,22 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" ht="58.05" customHeight="1" spans="1:8">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -3274,11 +3297,11 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" ht="34.05" customHeight="1"/>
